--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_5_12.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_5_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1619422.565357772</v>
+        <v>-1620134.867180816</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058538</v>
+        <v>632041.4518058543</v>
       </c>
     </row>
     <row r="9">
@@ -1209,64 +1209,64 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.199249640013477</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3.199249640013477</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3.199249640013477</v>
+      </c>
+      <c r="S9" t="n">
         <v>2.817899082923868</v>
       </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>3.199249640013477</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>3.199249640013477</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.199249640013477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>175.3455133380986</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="F11" t="n">
         <v>188.4979333192472</v>
@@ -1385,10 +1385,10 @@
         <v>188.4979333192472</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>149.2956984382938</v>
       </c>
       <c r="I11" t="n">
-        <v>62.86150506240816</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,16 +1415,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>16.73328122929903</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>44.31761724675137</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>72.00227733958187</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1449,16 +1449,16 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>187.5181515243659</v>
+        <v>9.36988737129812</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>27.37441584435086</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1497,25 +1497,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>13.44252716693642</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="T12" t="n">
-        <v>36.82265945242239</v>
+        <v>36.82265945242248</v>
       </c>
       <c r="U12" t="n">
-        <v>59.07980534382072</v>
+        <v>59.07980534382081</v>
       </c>
       <c r="V12" t="n">
-        <v>62.50065676233436</v>
+        <v>62.50065676233444</v>
       </c>
       <c r="W12" t="n">
-        <v>88.55631942394371</v>
+        <v>88.55631942394379</v>
       </c>
       <c r="X12" t="n">
-        <v>39.16465028640272</v>
+        <v>98.19758463302044</v>
       </c>
       <c r="Y12" t="n">
-        <v>45.23602198095773</v>
+        <v>188.4979333192472</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>25.28169700256623</v>
+        <v>25.28169700256631</v>
       </c>
       <c r="S13" t="n">
-        <v>57.28978021311268</v>
+        <v>57.28978021311276</v>
       </c>
       <c r="T13" t="n">
-        <v>45.61329429725512</v>
+        <v>45.61329429725521</v>
       </c>
       <c r="U13" t="n">
-        <v>110.5082928154977</v>
+        <v>110.5082928154978</v>
       </c>
       <c r="V13" t="n">
-        <v>66.96075103138202</v>
+        <v>66.9607510313821</v>
       </c>
       <c r="W13" t="n">
-        <v>112.1624429362674</v>
+        <v>112.1624429362675</v>
       </c>
       <c r="X13" t="n">
-        <v>43.77119125517464</v>
+        <v>43.77119125517473</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.99300866110053</v>
+        <v>38.99300866110062</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="C14" t="n">
-        <v>172.0572332281109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.988198856731399</v>
+        <v>64.28277078639488</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>168.8731344554828</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1652,22 +1652,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>16.73328122929889</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>49.36873040538038</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>72.00227733958195</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>159.7481996726989</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1686,28 +1686,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>9.369887371297978</v>
+        <v>9.36988737129812</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>53.84740613059434</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>52.47517038390259</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1734,25 +1734,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>13.44252716693637</v>
+        <v>13.44252716693651</v>
       </c>
       <c r="T15" t="n">
-        <v>188.4979333192472</v>
+        <v>36.82265945242248</v>
       </c>
       <c r="U15" t="n">
-        <v>59.07980534382067</v>
+        <v>59.07980534382081</v>
       </c>
       <c r="V15" t="n">
-        <v>62.5006567623343</v>
+        <v>62.50065676233444</v>
       </c>
       <c r="W15" t="n">
-        <v>88.55631942394365</v>
+        <v>88.55631942394379</v>
       </c>
       <c r="X15" t="n">
-        <v>39.16465028640266</v>
+        <v>39.1646502864028</v>
       </c>
       <c r="Y15" t="n">
-        <v>45.23602198095767</v>
+        <v>95.63097437387201</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.28169700256618</v>
+        <v>25.28169700256631</v>
       </c>
       <c r="S16" t="n">
-        <v>57.28978021311262</v>
+        <v>57.28978021311276</v>
       </c>
       <c r="T16" t="n">
-        <v>45.61329429725507</v>
+        <v>45.61329429725521</v>
       </c>
       <c r="U16" t="n">
-        <v>110.5082928154977</v>
+        <v>110.5082928154978</v>
       </c>
       <c r="V16" t="n">
-        <v>66.96075103138196</v>
+        <v>66.9607510313821</v>
       </c>
       <c r="W16" t="n">
-        <v>112.1624429362674</v>
+        <v>112.1624429362675</v>
       </c>
       <c r="X16" t="n">
-        <v>43.77119125517459</v>
+        <v>43.77119125517473</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.99300866110048</v>
+        <v>38.99300866110062</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>76.63956945084848</v>
+        <v>76.63956945084885</v>
       </c>
       <c r="C17" t="n">
-        <v>52.7578264541944</v>
+        <v>52.75782645419434</v>
       </c>
       <c r="D17" t="n">
-        <v>40.32448871524286</v>
+        <v>40.32448871524281</v>
       </c>
       <c r="E17" t="n">
-        <v>74.03124113465174</v>
+        <v>74.03124113465168</v>
       </c>
       <c r="F17" t="n">
-        <v>105.7515787130291</v>
+        <v>105.751578713029</v>
       </c>
       <c r="G17" t="n">
-        <v>121.3905020356641</v>
+        <v>121.390502035664</v>
       </c>
       <c r="H17" t="n">
-        <v>49.57372768156616</v>
+        <v>49.57372768156608</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>23.4321126821676</v>
+        <v>23.43211268216754</v>
       </c>
       <c r="W17" t="n">
-        <v>40.44879289878247</v>
+        <v>40.44879289878241</v>
       </c>
       <c r="X17" t="n">
-        <v>62.33504336772171</v>
+        <v>62.33504336772165</v>
       </c>
       <c r="Y17" t="n">
-        <v>84.83789649146547</v>
+        <v>84.83789649146541</v>
       </c>
     </row>
     <row r="18">
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1935,16 +1935,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>52.47517038390259</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>6.869455874161023</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -1974,10 +1974,10 @@
         <v>188.4979333192472</v>
       </c>
       <c r="T18" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>6.856664591014277</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -1989,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>20.70215766837554</v>
       </c>
     </row>
     <row r="19">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>76.63956945084891</v>
+        <v>76.63956945084885</v>
       </c>
       <c r="C20" t="n">
-        <v>52.7578264541944</v>
+        <v>52.75782645419434</v>
       </c>
       <c r="D20" t="n">
-        <v>40.32448871524286</v>
+        <v>40.32448871524281</v>
       </c>
       <c r="E20" t="n">
-        <v>74.03124113465174</v>
+        <v>74.03124113465168</v>
       </c>
       <c r="F20" t="n">
-        <v>105.7515787130291</v>
+        <v>105.751578713029</v>
       </c>
       <c r="G20" t="n">
-        <v>121.3905020356641</v>
+        <v>121.390502035664</v>
       </c>
       <c r="H20" t="n">
-        <v>49.57372768156614</v>
+        <v>49.57372768156608</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>23.4321126821676</v>
+        <v>23.43211268216754</v>
       </c>
       <c r="W20" t="n">
-        <v>40.44879289878247</v>
+        <v>40.44879289878241</v>
       </c>
       <c r="X20" t="n">
-        <v>62.33504336772171</v>
+        <v>62.33504336772165</v>
       </c>
       <c r="Y20" t="n">
-        <v>84.83789649146547</v>
+        <v>84.83789649146541</v>
       </c>
     </row>
     <row r="21">
@@ -2157,31 +2157,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>52.47517038390259</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2202,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>6.869455874161023</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -2211,22 +2211,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>48.27859771191456</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>169.4467621430024</v>
       </c>
       <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
         <v>188.4979333192472</v>
       </c>
-      <c r="W21" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" t="n">
-        <v>0</v>
-      </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
     </row>
     <row r="22">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>76.63956945084891</v>
+        <v>76.63956945084885</v>
       </c>
       <c r="C23" t="n">
-        <v>52.7578264541944</v>
+        <v>52.75782645419434</v>
       </c>
       <c r="D23" t="n">
-        <v>40.32448871524286</v>
+        <v>40.32448871524281</v>
       </c>
       <c r="E23" t="n">
-        <v>74.03124113465174</v>
+        <v>74.03124113465168</v>
       </c>
       <c r="F23" t="n">
-        <v>105.7515787130291</v>
+        <v>105.751578713029</v>
       </c>
       <c r="G23" t="n">
-        <v>121.3905020356641</v>
+        <v>121.390502035664</v>
       </c>
       <c r="H23" t="n">
-        <v>49.57372768156616</v>
+        <v>49.57372768156608</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>23.4321126821676</v>
+        <v>23.43211268216754</v>
       </c>
       <c r="W23" t="n">
-        <v>40.44879289878247</v>
+        <v>40.44879289878241</v>
       </c>
       <c r="X23" t="n">
-        <v>62.33504336772171</v>
+        <v>62.33504336772165</v>
       </c>
       <c r="Y23" t="n">
-        <v>84.83789649146547</v>
+        <v>84.83789649146541</v>
       </c>
     </row>
     <row r="24">
@@ -2397,28 +2397,28 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>148.7446044746268</v>
+        <v>123.354714888977</v>
       </c>
       <c r="H24" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>52.47517038390259</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2439,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>6.869455874161023</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -2451,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>81.02656572132042</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2460,10 +2460,10 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>188.4979333192471</v>
       </c>
     </row>
     <row r="25">
@@ -2561,7 +2561,7 @@
         <v>124.2874091182263</v>
       </c>
       <c r="E26" t="n">
-        <v>157.9941615376351</v>
+        <v>157.9941615376352</v>
       </c>
       <c r="F26" t="n">
         <v>189.7144991160125</v>
@@ -2573,7 +2573,7 @@
         <v>133.5366480845496</v>
       </c>
       <c r="I26" t="n">
-        <v>27.52501869147503</v>
+        <v>27.52501869147505</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.03224403444716</v>
+        <v>14.03224403444719</v>
       </c>
       <c r="T26" t="n">
-        <v>8.981130875818238</v>
+        <v>8.981130875818252</v>
       </c>
       <c r="U26" t="n">
-        <v>36.66579096864874</v>
+        <v>36.66579096864876</v>
       </c>
       <c r="V26" t="n">
         <v>107.395033085151</v>
@@ -2631,13 +2631,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>77.58566116773292</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>176.5599902079626</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2649,13 +2649,13 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>107.3634103439873</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>52.47517038390259</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,28 +2679,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>1.486173081489262</v>
+        <v>1.48617308148929</v>
       </c>
       <c r="U27" t="n">
-        <v>23.74331897288759</v>
+        <v>23.74331897288762</v>
       </c>
       <c r="V27" t="n">
-        <v>240.6489209154022</v>
+        <v>27.16417039140126</v>
       </c>
       <c r="W27" t="n">
-        <v>266.7045835770116</v>
+        <v>53.2198330530106</v>
       </c>
       <c r="X27" t="n">
-        <v>3.828163915469588</v>
+        <v>3.828163915469617</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.8995356100246</v>
+        <v>9.899535610024628</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>21.95329384217955</v>
+        <v>21.95329384217957</v>
       </c>
       <c r="T28" t="n">
-        <v>10.27680792632199</v>
+        <v>10.27680792632202</v>
       </c>
       <c r="U28" t="n">
-        <v>75.1718064445646</v>
+        <v>75.17180644456462</v>
       </c>
       <c r="V28" t="n">
-        <v>31.62426466044889</v>
+        <v>31.62426466044892</v>
       </c>
       <c r="W28" t="n">
-        <v>76.82595656533431</v>
+        <v>76.82595656533434</v>
       </c>
       <c r="X28" t="n">
-        <v>8.434704884241512</v>
+        <v>8.43470488424154</v>
       </c>
       <c r="Y28" t="n">
-        <v>3.656522290167402</v>
+        <v>3.65652229016743</v>
       </c>
     </row>
     <row r="29">
@@ -2798,7 +2798,7 @@
         <v>124.2874091182263</v>
       </c>
       <c r="E29" t="n">
-        <v>157.9941615376351</v>
+        <v>157.9941615376352</v>
       </c>
       <c r="F29" t="n">
         <v>189.7144991160125</v>
@@ -2810,7 +2810,7 @@
         <v>133.5366480845496</v>
       </c>
       <c r="I29" t="n">
-        <v>27.52501869147503</v>
+        <v>27.52501869147505</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.03224403444716</v>
+        <v>14.03224403444719</v>
       </c>
       <c r="T29" t="n">
-        <v>8.981130875818238</v>
+        <v>8.981130875818264</v>
       </c>
       <c r="U29" t="n">
-        <v>36.66579096864874</v>
+        <v>36.66579096864876</v>
       </c>
       <c r="V29" t="n">
         <v>107.395033085151</v>
@@ -2877,7 +2877,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2886,13 +2886,13 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>52.47517038390259</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,28 +2916,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>1.486173081489262</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U30" t="n">
-        <v>23.74331897288759</v>
+        <v>23.74331897288762</v>
       </c>
       <c r="V30" t="n">
-        <v>27.16417039140123</v>
+        <v>214.7444418873409</v>
       </c>
       <c r="W30" t="n">
-        <v>53.21983305301057</v>
+        <v>53.2198330530106</v>
       </c>
       <c r="X30" t="n">
-        <v>25.08545910466156</v>
+        <v>3.828163915469617</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.8995356100246</v>
+        <v>9.899535610024628</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>21.95329384217955</v>
+        <v>21.95329384217957</v>
       </c>
       <c r="T31" t="n">
-        <v>10.27680792632199</v>
+        <v>10.27680792632202</v>
       </c>
       <c r="U31" t="n">
-        <v>75.1718064445646</v>
+        <v>75.17180644456462</v>
       </c>
       <c r="V31" t="n">
-        <v>31.62426466044889</v>
+        <v>31.62426466044892</v>
       </c>
       <c r="W31" t="n">
-        <v>76.82595656533431</v>
+        <v>76.82595656533434</v>
       </c>
       <c r="X31" t="n">
-        <v>8.434704884241512</v>
+        <v>8.43470488424154</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.656522290167402</v>
+        <v>3.65652229016743</v>
       </c>
     </row>
     <row r="32">
@@ -3114,19 +3114,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>107.3634103439873</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,22 +3153,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>71.50700011320509</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>214.9709236054903</v>
+        <v>0.6584632146250504</v>
       </c>
       <c r="U33" t="n">
-        <v>229.5476343269875</v>
+        <v>22.91560910602338</v>
       </c>
       <c r="V33" t="n">
         <v>26.33646052453702</v>
       </c>
       <c r="W33" t="n">
-        <v>266.7045835770116</v>
+        <v>52.39212318614636</v>
       </c>
       <c r="X33" t="n">
         <v>3.000454048605377</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>102.0280721215645</v>
+        <v>102.0280721215646</v>
       </c>
       <c r="C35" t="n">
-        <v>78.14632912491004</v>
+        <v>78.1463291249101</v>
       </c>
       <c r="D35" t="n">
-        <v>65.7129913859585</v>
+        <v>65.71299138595856</v>
       </c>
       <c r="E35" t="n">
-        <v>99.41974380536737</v>
+        <v>99.41974380536743</v>
       </c>
       <c r="F35" t="n">
-        <v>131.1400813837447</v>
+        <v>131.1400813837448</v>
       </c>
       <c r="G35" t="n">
-        <v>146.7790047063797</v>
+        <v>146.7790047063798</v>
       </c>
       <c r="H35" t="n">
-        <v>74.96223035228178</v>
+        <v>74.96223035228184</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3323,16 +3323,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>48.82061535288324</v>
+        <v>48.82061535288329</v>
       </c>
       <c r="W35" t="n">
-        <v>65.83729556949811</v>
+        <v>65.83729556949817</v>
       </c>
       <c r="X35" t="n">
-        <v>87.72354603843735</v>
+        <v>87.72354603843741</v>
       </c>
       <c r="Y35" t="n">
-        <v>110.2263991621811</v>
+        <v>110.2263991621812</v>
       </c>
     </row>
     <row r="36">
@@ -3348,13 +3348,13 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>43.26327320493395</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>52.47517038390257</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,28 +3390,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>134.7198007890776</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>214.9709236054903</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>106.0494342770003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>16.59738871229683</v>
+        <v>16.59738871229688</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>18.25153883306655</v>
+        <v>18.2515388330666</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>102.0280721215645</v>
+        <v>102.0280721215646</v>
       </c>
       <c r="C38" t="n">
-        <v>78.14632912491004</v>
+        <v>78.1463291249101</v>
       </c>
       <c r="D38" t="n">
-        <v>65.7129913859585</v>
+        <v>65.71299138595856</v>
       </c>
       <c r="E38" t="n">
-        <v>99.41974380536737</v>
+        <v>99.41974380536743</v>
       </c>
       <c r="F38" t="n">
-        <v>131.1400813837447</v>
+        <v>131.1400813837448</v>
       </c>
       <c r="G38" t="n">
-        <v>146.7790047063797</v>
+        <v>146.7790047063798</v>
       </c>
       <c r="H38" t="n">
-        <v>74.96223035228178</v>
+        <v>74.96223035228184</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3560,16 +3560,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>48.82061535288324</v>
+        <v>48.82061535288329</v>
       </c>
       <c r="W38" t="n">
-        <v>65.83729556949811</v>
+        <v>65.83729556949817</v>
       </c>
       <c r="X38" t="n">
-        <v>87.72354603843735</v>
+        <v>87.72354603843741</v>
       </c>
       <c r="Y38" t="n">
-        <v>110.2263991621811</v>
+        <v>110.2263991621812</v>
       </c>
     </row>
     <row r="39">
@@ -3588,10 +3588,10 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>35.56203165230504</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>148.7446044746268</v>
@@ -3600,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>107.3634103439873</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3633,19 +3633,19 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>214.9709236054903</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>227.0929146257466</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>16.59738871229683</v>
+        <v>16.59738871229688</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>18.25153883306655</v>
+        <v>18.2515388330666</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3743,13 +3743,13 @@
         <v>109.1957281657028</v>
       </c>
       <c r="D41" t="n">
-        <v>96.76239042675127</v>
+        <v>96.76239042675124</v>
       </c>
       <c r="E41" t="n">
         <v>130.4691428461601</v>
       </c>
       <c r="F41" t="n">
-        <v>162.1894804245375</v>
+        <v>162.1894804245374</v>
       </c>
       <c r="G41" t="n">
         <v>177.8284037471725</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>9.140772277173735</v>
+        <v>9.140772277173706</v>
       </c>
       <c r="V41" t="n">
-        <v>79.870014393676</v>
+        <v>79.87001439367597</v>
       </c>
       <c r="W41" t="n">
-        <v>96.88669461029087</v>
+        <v>96.88669461029085</v>
       </c>
       <c r="X41" t="n">
         <v>118.7729450792301</v>
       </c>
       <c r="Y41" t="n">
-        <v>141.2757982029739</v>
+        <v>141.2757982029738</v>
       </c>
     </row>
     <row r="42">
@@ -3819,7 +3819,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3831,16 +3831,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>107.3634103439873</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>48.12225571620566</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3861,7 +3861,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>6.869455874161009</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -3870,16 +3870,16 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>123.9424231846887</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>25.69481436153558</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>47.64678775308959</v>
+        <v>47.64678775308956</v>
       </c>
       <c r="V43" t="n">
-        <v>4.099245968973889</v>
+        <v>4.099245968973861</v>
       </c>
       <c r="W43" t="n">
-        <v>49.30093787385931</v>
+        <v>49.30093787385928</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -4053,7 +4053,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4065,19 +4065,19 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>19.65620609897933</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>107.3634103439873</v>
       </c>
       <c r="J45" t="n">
-        <v>52.47517038390258</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>134.7198007890776</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>191.5907913200043</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4113,16 +4113,16 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
         <v>25.69481436153558</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>152.5404500708412</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="46">
@@ -4778,10 +4778,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.590454258427762</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="C8" t="n">
-        <v>6.590454258427762</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="D8" t="n">
         <v>6.719070557086891</v>
@@ -4863,19 +4863,19 @@
         <v>3.487505264143985</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2559399712010781</v>
+        <v>3.487505264143985</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2559399712010781</v>
+        <v>3.487505264143985</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2559399712010781</v>
+        <v>3.487505264143985</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2559399712010781</v>
+        <v>3.487505264143985</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2559399712010781</v>
+        <v>3.487505264143985</v>
       </c>
       <c r="I9" t="n">
         <v>0.2559399712010781</v>
@@ -4884,16 +4884,16 @@
         <v>0.2559399712010781</v>
       </c>
       <c r="K9" t="n">
+        <v>0.2559399712010781</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.2559399712010781</v>
+      </c>
+      <c r="M9" t="n">
         <v>3.42319711481442</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>6.462484272827225</v>
-      </c>
-      <c r="M9" t="n">
-        <v>6.462484272827225</v>
-      </c>
-      <c r="N9" t="n">
-        <v>9.629741416440567</v>
       </c>
       <c r="O9" t="n">
         <v>9.629741416440567</v>
@@ -4902,31 +4902,31 @@
         <v>12.79699856005391</v>
       </c>
       <c r="Q9" t="n">
-        <v>12.79699856005391</v>
+        <v>9.565433267111001</v>
       </c>
       <c r="R9" t="n">
-        <v>12.79699856005391</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="S9" t="n">
-        <v>12.79699856005391</v>
+        <v>3.487505264143985</v>
       </c>
       <c r="T9" t="n">
-        <v>12.79699856005391</v>
+        <v>3.487505264143985</v>
       </c>
       <c r="U9" t="n">
-        <v>9.565433267111001</v>
+        <v>3.487505264143985</v>
       </c>
       <c r="V9" t="n">
-        <v>9.565433267111001</v>
+        <v>3.487505264143985</v>
       </c>
       <c r="W9" t="n">
-        <v>9.565433267111001</v>
+        <v>3.487505264143985</v>
       </c>
       <c r="X9" t="n">
-        <v>9.565433267111001</v>
+        <v>3.487505264143985</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.333867974168094</v>
+        <v>3.487505264143985</v>
       </c>
     </row>
     <row r="10">
@@ -5015,46 +5015,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>459.3802101209969</v>
+        <v>737.0894290049695</v>
       </c>
       <c r="C11" t="n">
-        <v>459.3802101209969</v>
+        <v>737.0894290049695</v>
       </c>
       <c r="D11" t="n">
-        <v>459.3802101209969</v>
+        <v>737.0894290049695</v>
       </c>
       <c r="E11" t="n">
-        <v>459.3802101209969</v>
+        <v>546.687476157245</v>
       </c>
       <c r="F11" t="n">
-        <v>268.9782572732724</v>
+        <v>356.2855233095206</v>
       </c>
       <c r="G11" t="n">
-        <v>78.57630442554802</v>
+        <v>165.8835704617961</v>
       </c>
       <c r="H11" t="n">
-        <v>78.57630442554802</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="I11" t="n">
         <v>15.07983466553978</v>
       </c>
       <c r="J11" t="n">
-        <v>115.4328134021289</v>
+        <v>115.4328134021288</v>
       </c>
       <c r="K11" t="n">
-        <v>138.3986192474921</v>
+        <v>285.139674688828</v>
       </c>
       <c r="L11" t="n">
-        <v>185.1194617282522</v>
+        <v>331.8605171695881</v>
       </c>
       <c r="M11" t="n">
-        <v>371.732415714307</v>
+        <v>518.4734711556429</v>
       </c>
       <c r="N11" t="n">
-        <v>558.3453697003617</v>
+        <v>705.0864251416976</v>
       </c>
       <c r="O11" t="n">
-        <v>592.5660043930295</v>
+        <v>739.3070598343654</v>
       </c>
       <c r="P11" t="n">
         <v>753.9917332769888</v>
@@ -5063,28 +5063,28 @@
         <v>753.9917332769888</v>
       </c>
       <c r="R11" t="n">
-        <v>753.9917332769888</v>
+        <v>737.0894290049695</v>
       </c>
       <c r="S11" t="n">
-        <v>753.9917332769888</v>
+        <v>737.0894290049695</v>
       </c>
       <c r="T11" t="n">
-        <v>709.2264633307753</v>
+        <v>737.0894290049695</v>
       </c>
       <c r="U11" t="n">
-        <v>636.4968902604907</v>
+        <v>737.0894290049695</v>
       </c>
       <c r="V11" t="n">
-        <v>636.4968902604907</v>
+        <v>737.0894290049695</v>
       </c>
       <c r="W11" t="n">
-        <v>636.4968902604907</v>
+        <v>737.0894290049695</v>
       </c>
       <c r="X11" t="n">
-        <v>636.4968902604907</v>
+        <v>737.0894290049695</v>
       </c>
       <c r="Y11" t="n">
-        <v>636.4968902604907</v>
+        <v>737.0894290049695</v>
       </c>
     </row>
     <row r="12">
@@ -5094,16 +5094,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>405.7062379064655</v>
+        <v>24.54436736382071</v>
       </c>
       <c r="C12" t="n">
-        <v>216.2939636394292</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="D12" t="n">
-        <v>216.2939636394292</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="E12" t="n">
-        <v>42.73075976084368</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="F12" t="n">
         <v>15.07983466553978</v>
@@ -5121,10 +5121,10 @@
         <v>15.07983466553978</v>
       </c>
       <c r="K12" t="n">
-        <v>53.04316068142015</v>
+        <v>53.04316068142016</v>
       </c>
       <c r="L12" t="n">
-        <v>170.3760798097943</v>
+        <v>170.3760798097942</v>
       </c>
       <c r="M12" t="n">
         <v>352.0527264137997</v>
@@ -5145,25 +5145,25 @@
         <v>753.9917332769888</v>
       </c>
       <c r="S12" t="n">
-        <v>740.4134230073561</v>
+        <v>563.5897804292644</v>
       </c>
       <c r="T12" t="n">
-        <v>703.2188174998587</v>
+        <v>526.3951749217669</v>
       </c>
       <c r="U12" t="n">
-        <v>643.5422464454944</v>
+        <v>466.7186038674024</v>
       </c>
       <c r="V12" t="n">
-        <v>580.4102699178839</v>
+        <v>403.5866273397918</v>
       </c>
       <c r="W12" t="n">
-        <v>490.9594422169306</v>
+        <v>314.1357996388385</v>
       </c>
       <c r="X12" t="n">
-        <v>451.3991894023824</v>
+        <v>214.9463202115452</v>
       </c>
       <c r="Y12" t="n">
-        <v>405.7062379064655</v>
+        <v>24.54436736382071</v>
       </c>
     </row>
     <row r="13">
@@ -5176,70 +5176,70 @@
         <v>15.07983466553978</v>
       </c>
       <c r="C13" t="n">
-        <v>26.65400701482436</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="D13" t="n">
-        <v>59.28996477815797</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="E13" t="n">
-        <v>95.39736648959243</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="F13" t="n">
-        <v>134.2265346048675</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="G13" t="n">
-        <v>143.5795489385237</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="H13" t="n">
-        <v>155.780176771941</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="I13" t="n">
-        <v>155.780176771941</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="J13" t="n">
-        <v>155.780176771941</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="K13" t="n">
-        <v>155.780176771941</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="L13" t="n">
-        <v>155.780176771941</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="M13" t="n">
-        <v>307.1822615385737</v>
+        <v>166.4819194321724</v>
       </c>
       <c r="N13" t="n">
-        <v>331.0320093814444</v>
+        <v>326.493745148121</v>
       </c>
       <c r="O13" t="n">
-        <v>470.2946957351826</v>
+        <v>402.2436925423774</v>
       </c>
       <c r="P13" t="n">
-        <v>470.2946957351826</v>
+        <v>520.7166611426682</v>
       </c>
       <c r="Q13" t="n">
-        <v>520.7166611426675</v>
+        <v>520.7166611426682</v>
       </c>
       <c r="R13" t="n">
-        <v>495.1795934633077</v>
+        <v>495.1795934633083</v>
       </c>
       <c r="S13" t="n">
-        <v>437.3111286015777</v>
+        <v>437.3111286015782</v>
       </c>
       <c r="T13" t="n">
-        <v>391.2370939578856</v>
+        <v>391.2370939578861</v>
       </c>
       <c r="U13" t="n">
-        <v>279.6125557604132</v>
+        <v>279.6125557604136</v>
       </c>
       <c r="V13" t="n">
-        <v>211.9754335064919</v>
+        <v>211.9754335064922</v>
       </c>
       <c r="W13" t="n">
-        <v>98.68003660117128</v>
+        <v>98.68003660117145</v>
       </c>
       <c r="X13" t="n">
-        <v>54.46671210099486</v>
+        <v>54.46671210099495</v>
       </c>
       <c r="Y13" t="n">
         <v>15.07983466553978</v>
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>385.3256583060342</v>
+        <v>250.5908500613758</v>
       </c>
       <c r="C14" t="n">
-        <v>211.5304732271343</v>
+        <v>250.5908500613758</v>
       </c>
       <c r="D14" t="n">
-        <v>211.5304732271343</v>
+        <v>250.5908500613758</v>
       </c>
       <c r="E14" t="n">
-        <v>21.12852037940987</v>
+        <v>250.5908500613758</v>
       </c>
       <c r="F14" t="n">
-        <v>21.12852037940987</v>
+        <v>250.5908500613758</v>
       </c>
       <c r="G14" t="n">
-        <v>15.07983466553977</v>
+        <v>185.6587583579467</v>
       </c>
       <c r="H14" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="I14" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="J14" t="n">
-        <v>115.4328134021289</v>
+        <v>115.4328134021288</v>
       </c>
       <c r="K14" t="n">
-        <v>115.4328134021289</v>
+        <v>127.9904616471779</v>
       </c>
       <c r="L14" t="n">
-        <v>162.153655882889</v>
+        <v>314.6034156332327</v>
       </c>
       <c r="M14" t="n">
-        <v>348.7666098689438</v>
+        <v>395.4653147201799</v>
       </c>
       <c r="N14" t="n">
-        <v>535.3795638549984</v>
+        <v>470.7932078558724</v>
       </c>
       <c r="O14" t="n">
-        <v>721.9925178410531</v>
+        <v>505.0138425485401</v>
       </c>
       <c r="P14" t="n">
-        <v>753.9917332769887</v>
+        <v>666.4395714324994</v>
       </c>
       <c r="Q14" t="n">
-        <v>753.9917332769887</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="R14" t="n">
-        <v>737.0894290049696</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="S14" t="n">
-        <v>737.0894290049696</v>
+        <v>704.1243288271097</v>
       </c>
       <c r="T14" t="n">
-        <v>737.0894290049696</v>
+        <v>704.1243288271097</v>
       </c>
       <c r="U14" t="n">
-        <v>737.0894290049696</v>
+        <v>631.3947557568249</v>
       </c>
       <c r="V14" t="n">
-        <v>737.0894290049696</v>
+        <v>631.3947557568249</v>
       </c>
       <c r="W14" t="n">
-        <v>575.7276111537586</v>
+        <v>631.3947557568249</v>
       </c>
       <c r="X14" t="n">
-        <v>575.7276111537586</v>
+        <v>631.3947557568249</v>
       </c>
       <c r="Y14" t="n">
-        <v>385.3256583060342</v>
+        <v>440.9928029091003</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>252.4988905662388</v>
+        <v>354.80224559039</v>
       </c>
       <c r="C15" t="n">
-        <v>243.034357867958</v>
+        <v>345.337712892109</v>
       </c>
       <c r="D15" t="n">
-        <v>243.034357867958</v>
+        <v>345.337712892109</v>
       </c>
       <c r="E15" t="n">
-        <v>69.47115398937245</v>
+        <v>345.337712892109</v>
       </c>
       <c r="F15" t="n">
-        <v>15.07983466553977</v>
+        <v>345.337712892109</v>
       </c>
       <c r="G15" t="n">
-        <v>15.07983466553977</v>
+        <v>195.0906376652133</v>
       </c>
       <c r="H15" t="n">
-        <v>15.07983466553977</v>
+        <v>68.0850572755424</v>
       </c>
       <c r="I15" t="n">
-        <v>15.07983466553977</v>
+        <v>68.0850572755424</v>
       </c>
       <c r="J15" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="K15" t="n">
-        <v>53.04316068142015</v>
+        <v>53.04316068142017</v>
       </c>
       <c r="L15" t="n">
-        <v>170.3760798097942</v>
+        <v>170.3760798097943</v>
       </c>
       <c r="M15" t="n">
-        <v>352.0527264137996</v>
+        <v>352.0527264137997</v>
       </c>
       <c r="N15" t="n">
-        <v>538.6656803998544</v>
+        <v>538.6656803998545</v>
       </c>
       <c r="O15" t="n">
-        <v>670.3666200188889</v>
+        <v>670.366620018889</v>
       </c>
       <c r="P15" t="n">
-        <v>753.9917332769887</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="Q15" t="n">
-        <v>753.9917332769887</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="R15" t="n">
-        <v>753.9917332769887</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="S15" t="n">
-        <v>740.4134230073561</v>
+        <v>740.413423007356</v>
       </c>
       <c r="T15" t="n">
-        <v>550.0114701596317</v>
+        <v>703.2188174998585</v>
       </c>
       <c r="U15" t="n">
-        <v>490.3348991052674</v>
+        <v>643.542246445494</v>
       </c>
       <c r="V15" t="n">
-        <v>427.202922577657</v>
+        <v>580.4102699178835</v>
       </c>
       <c r="W15" t="n">
-        <v>337.7520948767038</v>
+        <v>490.9594422169302</v>
       </c>
       <c r="X15" t="n">
-        <v>298.1918420621556</v>
+        <v>451.3991894023819</v>
       </c>
       <c r="Y15" t="n">
-        <v>252.4988905662388</v>
+        <v>354.80224559039</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.60586471875863</v>
+        <v>15.60586471875849</v>
       </c>
       <c r="C16" t="n">
-        <v>15.60586471875863</v>
+        <v>15.60586471875849</v>
       </c>
       <c r="D16" t="n">
-        <v>15.60586471875863</v>
+        <v>48.24182248209201</v>
       </c>
       <c r="E16" t="n">
-        <v>51.71326643019314</v>
+        <v>48.24182248209201</v>
       </c>
       <c r="F16" t="n">
-        <v>51.71326643019314</v>
+        <v>87.07099059736694</v>
       </c>
       <c r="G16" t="n">
-        <v>51.71326643019314</v>
+        <v>96.42400493102312</v>
       </c>
       <c r="H16" t="n">
-        <v>63.91389426361049</v>
+        <v>96.42400493102312</v>
       </c>
       <c r="I16" t="n">
-        <v>77.07623738786236</v>
+        <v>96.42400493102312</v>
       </c>
       <c r="J16" t="n">
-        <v>134.4058073923198</v>
+        <v>96.42400493102312</v>
       </c>
       <c r="K16" t="n">
-        <v>134.4058073923198</v>
+        <v>206.4311061047622</v>
       </c>
       <c r="L16" t="n">
-        <v>278.9422908181599</v>
+        <v>206.4311061047622</v>
       </c>
       <c r="M16" t="n">
-        <v>430.3443755847927</v>
+        <v>357.8331908713948</v>
       </c>
       <c r="N16" t="n">
-        <v>430.3443755847927</v>
+        <v>357.8331908713948</v>
       </c>
       <c r="O16" t="n">
-        <v>430.3443755847927</v>
+        <v>497.0958772251329</v>
       </c>
       <c r="P16" t="n">
-        <v>470.2946957351821</v>
+        <v>520.7166611426682</v>
       </c>
       <c r="Q16" t="n">
-        <v>520.716661142667</v>
+        <v>520.7166611426682</v>
       </c>
       <c r="R16" t="n">
-        <v>495.1795934633073</v>
+        <v>495.1795934633083</v>
       </c>
       <c r="S16" t="n">
-        <v>437.3111286015774</v>
+        <v>437.3111286015782</v>
       </c>
       <c r="T16" t="n">
-        <v>391.2370939578853</v>
+        <v>391.2370939578861</v>
       </c>
       <c r="U16" t="n">
-        <v>279.6125557604129</v>
+        <v>279.6125557604136</v>
       </c>
       <c r="V16" t="n">
-        <v>211.9754335064918</v>
+        <v>211.9754335064922</v>
       </c>
       <c r="W16" t="n">
-        <v>98.68003660117114</v>
+        <v>98.68003660117145</v>
       </c>
       <c r="X16" t="n">
-        <v>54.4667121009948</v>
+        <v>54.46671210099495</v>
       </c>
       <c r="Y16" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>463.3923242961949</v>
+        <v>463.3923242961948</v>
       </c>
       <c r="C17" t="n">
-        <v>410.1015905040794</v>
+        <v>410.1015905040792</v>
       </c>
       <c r="D17" t="n">
-        <v>369.3697837210057</v>
+        <v>369.3697837210055</v>
       </c>
       <c r="E17" t="n">
-        <v>294.5907522718625</v>
+        <v>294.5907522718624</v>
       </c>
       <c r="F17" t="n">
         <v>187.7709757940553</v>
       </c>
       <c r="G17" t="n">
-        <v>65.15430707116217</v>
+        <v>65.15430707116209</v>
       </c>
       <c r="H17" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="I17" t="n">
-        <v>70.95335735993307</v>
+        <v>70.95335735993312</v>
       </c>
       <c r="J17" t="n">
-        <v>70.95335735993307</v>
+        <v>70.95335735993312</v>
       </c>
       <c r="K17" t="n">
-        <v>257.5663113459878</v>
+        <v>70.95335735993312</v>
       </c>
       <c r="L17" t="n">
-        <v>304.287153826748</v>
+        <v>117.6741998406933</v>
       </c>
       <c r="M17" t="n">
-        <v>490.9001078128027</v>
+        <v>198.5360989276406</v>
       </c>
       <c r="N17" t="n">
-        <v>566.228000948495</v>
+        <v>273.863992063333</v>
       </c>
       <c r="O17" t="n">
-        <v>600.4486356411628</v>
+        <v>308.0846267560008</v>
       </c>
       <c r="P17" t="n">
-        <v>707.1675751369974</v>
+        <v>462.1637696110815</v>
       </c>
       <c r="Q17" t="n">
-        <v>707.1675751369974</v>
+        <v>462.1637696110815</v>
       </c>
       <c r="R17" t="n">
-        <v>707.1675751369974</v>
+        <v>563.704233900253</v>
       </c>
       <c r="S17" t="n">
-        <v>707.1675751369974</v>
+        <v>632.9356035051039</v>
       </c>
       <c r="T17" t="n">
-        <v>707.1675751369974</v>
+        <v>707.1675751369975</v>
       </c>
       <c r="U17" t="n">
-        <v>753.9917332769887</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="V17" t="n">
-        <v>730.3229325879305</v>
+        <v>730.3229325879306</v>
       </c>
       <c r="W17" t="n">
-        <v>689.4655660235037</v>
+        <v>689.4655660235039</v>
       </c>
       <c r="X17" t="n">
-        <v>626.5008757530777</v>
+        <v>626.5008757530779</v>
       </c>
       <c r="Y17" t="n">
-        <v>540.8060308122035</v>
+        <v>540.8060308122037</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>175.859950904508</v>
+        <v>345.337712892109</v>
       </c>
       <c r="C18" t="n">
-        <v>175.859950904508</v>
+        <v>345.337712892109</v>
       </c>
       <c r="D18" t="n">
-        <v>15.07983466553977</v>
+        <v>345.337712892109</v>
       </c>
       <c r="E18" t="n">
-        <v>15.07983466553977</v>
+        <v>345.337712892109</v>
       </c>
       <c r="F18" t="n">
-        <v>15.07983466553977</v>
+        <v>345.337712892109</v>
       </c>
       <c r="G18" t="n">
-        <v>15.07983466553977</v>
+        <v>195.0906376652133</v>
       </c>
       <c r="H18" t="n">
-        <v>15.07983466553977</v>
+        <v>68.0850572755424</v>
       </c>
       <c r="I18" t="n">
-        <v>15.07983466553977</v>
+        <v>68.0850572755424</v>
       </c>
       <c r="J18" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="K18" t="n">
-        <v>53.04316068142015</v>
+        <v>53.04316068142017</v>
       </c>
       <c r="L18" t="n">
-        <v>170.3760798097942</v>
+        <v>170.3760798097943</v>
       </c>
       <c r="M18" t="n">
-        <v>352.0527264137996</v>
+        <v>352.0527264137997</v>
       </c>
       <c r="N18" t="n">
-        <v>538.6656803998544</v>
+        <v>538.6656803998545</v>
       </c>
       <c r="O18" t="n">
-        <v>670.3666200188889</v>
+        <v>670.366620018889</v>
       </c>
       <c r="P18" t="n">
-        <v>753.9917332769887</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="Q18" t="n">
-        <v>753.9917332769887</v>
+        <v>747.0528889596545</v>
       </c>
       <c r="R18" t="n">
-        <v>753.9917332769887</v>
+        <v>747.0528889596545</v>
       </c>
       <c r="S18" t="n">
-        <v>563.5897804292642</v>
+        <v>556.65093611193</v>
       </c>
       <c r="T18" t="n">
-        <v>373.1878275815398</v>
+        <v>556.65093611193</v>
       </c>
       <c r="U18" t="n">
-        <v>366.2619037522325</v>
+        <v>556.65093611193</v>
       </c>
       <c r="V18" t="n">
-        <v>366.2619037522325</v>
+        <v>556.65093611193</v>
       </c>
       <c r="W18" t="n">
-        <v>175.859950904508</v>
+        <v>366.2489832642055</v>
       </c>
       <c r="X18" t="n">
-        <v>175.859950904508</v>
+        <v>366.2489832642055</v>
       </c>
       <c r="Y18" t="n">
-        <v>175.859950904508</v>
+        <v>345.337712892109</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="C19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="D19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="E19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="F19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="G19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="H19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="I19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="J19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="K19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="L19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="M19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="N19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="O19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="P19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="R19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="S19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="T19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="U19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="V19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="W19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="X19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="Y19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
     </row>
     <row r="20">
@@ -5726,67 +5726,67 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>463.3923242961946</v>
+        <v>463.3923242961948</v>
       </c>
       <c r="C20" t="n">
-        <v>410.101590504079</v>
+        <v>410.1015905040792</v>
       </c>
       <c r="D20" t="n">
-        <v>369.3697837210052</v>
+        <v>369.3697837210056</v>
       </c>
       <c r="E20" t="n">
-        <v>294.5907522718619</v>
+        <v>294.5907522718625</v>
       </c>
       <c r="F20" t="n">
-        <v>187.7709757940547</v>
+        <v>187.7709757940554</v>
       </c>
       <c r="G20" t="n">
-        <v>65.15430707116214</v>
+        <v>65.15430707116209</v>
       </c>
       <c r="H20" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="I20" t="n">
-        <v>70.95335735993307</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="J20" t="n">
-        <v>70.95335735993307</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="K20" t="n">
-        <v>70.95335735993307</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="L20" t="n">
-        <v>117.6741998406932</v>
+        <v>61.80067714629992</v>
       </c>
       <c r="M20" t="n">
-        <v>304.2871538267479</v>
+        <v>142.6625762332472</v>
       </c>
       <c r="N20" t="n">
-        <v>379.6150469624403</v>
+        <v>217.9904693689396</v>
       </c>
       <c r="O20" t="n">
-        <v>566.228000948495</v>
+        <v>404.6034233549943</v>
       </c>
       <c r="P20" t="n">
-        <v>632.9356035051038</v>
+        <v>404.6034233549943</v>
       </c>
       <c r="Q20" t="n">
-        <v>632.9356035051038</v>
+        <v>591.2163773410491</v>
       </c>
       <c r="R20" t="n">
-        <v>632.9356035051038</v>
+        <v>679.7597616450953</v>
       </c>
       <c r="S20" t="n">
-        <v>632.9356035051038</v>
+        <v>679.7597616450953</v>
       </c>
       <c r="T20" t="n">
-        <v>707.1675751369974</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="U20" t="n">
-        <v>753.9917332769887</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="V20" t="n">
-        <v>730.3229325879304</v>
+        <v>730.3229325879305</v>
       </c>
       <c r="W20" t="n">
         <v>689.4655660235039</v>
@@ -5795,7 +5795,7 @@
         <v>626.5008757530779</v>
       </c>
       <c r="Y20" t="n">
-        <v>540.8060308122036</v>
+        <v>540.8060308122039</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>336.2876671872639</v>
+        <v>195.0906376652133</v>
       </c>
       <c r="C21" t="n">
-        <v>336.2876671872639</v>
+        <v>195.0906376652133</v>
       </c>
       <c r="D21" t="n">
-        <v>175.5075509482957</v>
+        <v>195.0906376652133</v>
       </c>
       <c r="E21" t="n">
-        <v>175.5075509482957</v>
+        <v>195.0906376652133</v>
       </c>
       <c r="F21" t="n">
-        <v>15.07983466553977</v>
+        <v>195.0906376652133</v>
       </c>
       <c r="G21" t="n">
-        <v>15.07983466553977</v>
+        <v>195.0906376652133</v>
       </c>
       <c r="H21" t="n">
-        <v>15.07983466553977</v>
+        <v>68.0850572755424</v>
       </c>
       <c r="I21" t="n">
-        <v>15.07983466553977</v>
+        <v>68.0850572755424</v>
       </c>
       <c r="J21" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="K21" t="n">
-        <v>53.04316068142015</v>
+        <v>53.04316068142017</v>
       </c>
       <c r="L21" t="n">
-        <v>170.3760798097942</v>
+        <v>170.3760798097943</v>
       </c>
       <c r="M21" t="n">
-        <v>352.0527264137996</v>
+        <v>352.0527264137997</v>
       </c>
       <c r="N21" t="n">
-        <v>538.6656803998544</v>
+        <v>538.6656803998545</v>
       </c>
       <c r="O21" t="n">
-        <v>670.3666200188889</v>
+        <v>670.366620018889</v>
       </c>
       <c r="P21" t="n">
-        <v>753.9917332769887</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="Q21" t="n">
-        <v>753.9917332769887</v>
+        <v>747.0528889596545</v>
       </c>
       <c r="R21" t="n">
-        <v>753.9917332769887</v>
+        <v>747.0528889596545</v>
       </c>
       <c r="S21" t="n">
-        <v>753.9917332769887</v>
+        <v>747.0528889596545</v>
       </c>
       <c r="T21" t="n">
-        <v>705.2254729619235</v>
+        <v>747.0528889596545</v>
       </c>
       <c r="U21" t="n">
-        <v>705.2254729619235</v>
+        <v>575.8945433606622</v>
       </c>
       <c r="V21" t="n">
-        <v>514.823520114199</v>
+        <v>575.8945433606622</v>
       </c>
       <c r="W21" t="n">
-        <v>514.823520114199</v>
+        <v>575.8945433606622</v>
       </c>
       <c r="X21" t="n">
-        <v>514.823520114199</v>
+        <v>385.4925905129377</v>
       </c>
       <c r="Y21" t="n">
-        <v>514.823520114199</v>
+        <v>195.0906376652133</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="C22" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="D22" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="E22" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="F22" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="G22" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="H22" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="I22" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="J22" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="K22" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="L22" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="M22" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="N22" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="O22" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="P22" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="R22" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="S22" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="T22" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="U22" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="V22" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="W22" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="X22" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="Y22" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>463.3923242961947</v>
+        <v>463.3923242961941</v>
       </c>
       <c r="C23" t="n">
-        <v>410.1015905040791</v>
+        <v>410.1015905040787</v>
       </c>
       <c r="D23" t="n">
-        <v>369.3697837210055</v>
+        <v>369.3697837210051</v>
       </c>
       <c r="E23" t="n">
-        <v>294.5907522718624</v>
+        <v>294.5907522718621</v>
       </c>
       <c r="F23" t="n">
         <v>187.7709757940552</v>
       </c>
       <c r="G23" t="n">
-        <v>65.15430707116217</v>
+        <v>65.15430707116208</v>
       </c>
       <c r="H23" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="I23" t="n">
-        <v>70.95335735993307</v>
+        <v>70.95335735993311</v>
       </c>
       <c r="J23" t="n">
-        <v>257.5663113459878</v>
+        <v>70.95335735993311</v>
       </c>
       <c r="K23" t="n">
-        <v>257.5663113459878</v>
+        <v>70.95335735993311</v>
       </c>
       <c r="L23" t="n">
-        <v>304.287153826748</v>
+        <v>117.6741998406932</v>
       </c>
       <c r="M23" t="n">
-        <v>385.1490529136952</v>
+        <v>198.5360989276406</v>
       </c>
       <c r="N23" t="n">
-        <v>571.76200689975</v>
+        <v>273.8639920633329</v>
       </c>
       <c r="O23" t="n">
-        <v>605.9826415924177</v>
+        <v>308.0846267560007</v>
       </c>
       <c r="P23" t="n">
-        <v>605.9826415924177</v>
+        <v>494.6975807420554</v>
       </c>
       <c r="Q23" t="n">
-        <v>605.9826415924177</v>
+        <v>536.3957412429746</v>
       </c>
       <c r="R23" t="n">
-        <v>684.7603636721379</v>
+        <v>637.9362055321461</v>
       </c>
       <c r="S23" t="n">
-        <v>753.9917332769888</v>
+        <v>707.167575136997</v>
       </c>
       <c r="T23" t="n">
-        <v>753.9917332769888</v>
+        <v>707.167575136997</v>
       </c>
       <c r="U23" t="n">
-        <v>753.9917332769888</v>
+        <v>753.9917332769884</v>
       </c>
       <c r="V23" t="n">
-        <v>730.3229325879306</v>
+        <v>730.3229325879302</v>
       </c>
       <c r="W23" t="n">
-        <v>689.4655660235039</v>
+        <v>689.4655660235035</v>
       </c>
       <c r="X23" t="n">
-        <v>626.5008757530779</v>
+        <v>626.5008757530775</v>
       </c>
       <c r="Y23" t="n">
-        <v>540.8060308122037</v>
+        <v>540.8060308122033</v>
       </c>
     </row>
     <row r="24">
@@ -6042,34 +6042,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>481.7447645491427</v>
+        <v>366.2489832642057</v>
       </c>
       <c r="C24" t="n">
-        <v>292.3324902821064</v>
+        <v>366.2489832642057</v>
       </c>
       <c r="D24" t="n">
-        <v>292.3324902821064</v>
+        <v>366.2489832642057</v>
       </c>
       <c r="E24" t="n">
-        <v>292.3324902821064</v>
+        <v>192.6857793856201</v>
       </c>
       <c r="F24" t="n">
-        <v>292.3324902821064</v>
+        <v>192.6857793856201</v>
       </c>
       <c r="G24" t="n">
-        <v>142.0854150552106</v>
+        <v>68.08505727554238</v>
       </c>
       <c r="H24" t="n">
-        <v>15.07983466553978</v>
+        <v>68.08505727554238</v>
       </c>
       <c r="I24" t="n">
-        <v>15.07983466553978</v>
+        <v>68.08505727554238</v>
       </c>
       <c r="J24" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="K24" t="n">
-        <v>53.04316068142015</v>
+        <v>53.04316068142016</v>
       </c>
       <c r="L24" t="n">
         <v>170.3760798097943</v>
@@ -6078,40 +6078,40 @@
         <v>352.0527264137997</v>
       </c>
       <c r="N24" t="n">
-        <v>538.6656803998545</v>
+        <v>538.6656803998544</v>
       </c>
       <c r="O24" t="n">
-        <v>670.366620018889</v>
+        <v>670.3666200188889</v>
       </c>
       <c r="P24" t="n">
-        <v>753.9917332769888</v>
+        <v>753.9917332769887</v>
       </c>
       <c r="Q24" t="n">
-        <v>753.9917332769888</v>
+        <v>747.0528889596544</v>
       </c>
       <c r="R24" t="n">
-        <v>753.9917332769888</v>
+        <v>747.0528889596544</v>
       </c>
       <c r="S24" t="n">
-        <v>753.9917332769888</v>
+        <v>747.0528889596544</v>
       </c>
       <c r="T24" t="n">
-        <v>753.9917332769888</v>
+        <v>747.0528889596544</v>
       </c>
       <c r="U24" t="n">
-        <v>672.1467173968672</v>
+        <v>747.0528889596544</v>
       </c>
       <c r="V24" t="n">
-        <v>672.1467173968672</v>
+        <v>747.0528889596544</v>
       </c>
       <c r="W24" t="n">
-        <v>672.1467173968672</v>
+        <v>747.0528889596544</v>
       </c>
       <c r="X24" t="n">
-        <v>481.7447645491427</v>
+        <v>556.65093611193</v>
       </c>
       <c r="Y24" t="n">
-        <v>481.7447645491427</v>
+        <v>366.2489832642057</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="C25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="D25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="E25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="F25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="G25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="H25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="I25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="J25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="K25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="L25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="M25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="N25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="O25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="P25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="R25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="S25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="T25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="U25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="V25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="W25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="X25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="Y25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
     </row>
     <row r="26">
@@ -6203,52 +6203,52 @@
         <v>1020.898422489611</v>
       </c>
       <c r="C26" t="n">
-        <v>882.7966579874111</v>
+        <v>882.796657987411</v>
       </c>
       <c r="D26" t="n">
-        <v>757.2538204942532</v>
+        <v>757.2538204942531</v>
       </c>
       <c r="E26" t="n">
-        <v>597.6637583350258</v>
+        <v>597.6637583350257</v>
       </c>
       <c r="F26" t="n">
-        <v>406.0329511471344</v>
+        <v>406.0329511471342</v>
       </c>
       <c r="G26" t="n">
-        <v>198.6052517141571</v>
+        <v>198.6052517141568</v>
       </c>
       <c r="H26" t="n">
-        <v>63.71974859845017</v>
+        <v>63.71974859845021</v>
       </c>
       <c r="I26" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="J26" t="n">
-        <v>171.252799658955</v>
+        <v>171.2527996589549</v>
       </c>
       <c r="K26" t="n">
-        <v>375.9427824528781</v>
+        <v>375.942782452878</v>
       </c>
       <c r="L26" t="n">
-        <v>634.0135279523993</v>
+        <v>634.013527952399</v>
       </c>
       <c r="M26" t="n">
-        <v>926.2253300581076</v>
+        <v>926.2253300581074</v>
       </c>
       <c r="N26" t="n">
-        <v>1212.90312621256</v>
+        <v>1212.903126212561</v>
       </c>
       <c r="O26" t="n">
-        <v>1458.473663923989</v>
+        <v>1458.47366392399</v>
       </c>
       <c r="P26" t="n">
-        <v>1654.882514315172</v>
+        <v>1654.882514315173</v>
       </c>
       <c r="Q26" t="n">
-        <v>1777.417797666885</v>
+        <v>1777.417797666886</v>
       </c>
       <c r="R26" t="n">
-        <v>1795.834970757103</v>
+        <v>1795.834970757104</v>
       </c>
       <c r="S26" t="n">
         <v>1781.660986883924</v>
@@ -6257,7 +6257,7 @@
         <v>1772.589137514411</v>
       </c>
       <c r="U26" t="n">
-        <v>1735.552985020826</v>
+        <v>1735.552985020827</v>
       </c>
       <c r="V26" t="n">
         <v>1627.073153621684</v>
@@ -6266,7 +6266,7 @@
         <v>1501.404756347173</v>
       </c>
       <c r="X26" t="n">
-        <v>1353.629035366662</v>
+        <v>1353.629035366663</v>
       </c>
       <c r="Y26" t="n">
         <v>1183.123159715704</v>
@@ -6279,37 +6279,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>162.9222798048129</v>
+        <v>536.4933519529513</v>
       </c>
       <c r="C27" t="n">
-        <v>162.9222798048129</v>
+        <v>358.1499275004638</v>
       </c>
       <c r="D27" t="n">
-        <v>162.9222798048129</v>
+        <v>197.3698112614956</v>
       </c>
       <c r="E27" t="n">
-        <v>162.9222798048129</v>
+        <v>197.3698112614956</v>
       </c>
       <c r="F27" t="n">
-        <v>162.9222798048129</v>
+        <v>197.3698112614956</v>
       </c>
       <c r="G27" t="n">
-        <v>162.9222798048129</v>
+        <v>197.3698112614956</v>
       </c>
       <c r="H27" t="n">
-        <v>35.91669941514206</v>
+        <v>197.3698112614956</v>
       </c>
       <c r="I27" t="n">
-        <v>35.91669941514206</v>
+        <v>88.9219220251447</v>
       </c>
       <c r="J27" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="K27" t="n">
-        <v>73.88002543102243</v>
+        <v>73.88002543102246</v>
       </c>
       <c r="L27" t="n">
-        <v>191.2129445593965</v>
+        <v>191.2129445593966</v>
       </c>
       <c r="M27" t="n">
         <v>372.889591163402</v>
@@ -6327,28 +6327,28 @@
         <v>793.1206204512955</v>
       </c>
       <c r="R27" t="n">
-        <v>793.1206204512955</v>
+        <v>657.0400135936413</v>
       </c>
       <c r="S27" t="n">
-        <v>793.1206204512955</v>
+        <v>657.0400135936413</v>
       </c>
       <c r="T27" t="n">
-        <v>791.6194355204983</v>
+        <v>655.538828662844</v>
       </c>
       <c r="U27" t="n">
-        <v>767.6362850428341</v>
+        <v>631.5556781851798</v>
       </c>
       <c r="V27" t="n">
-        <v>524.5565669464681</v>
+        <v>604.1171222342695</v>
       </c>
       <c r="W27" t="n">
-        <v>255.1579976767595</v>
+        <v>550.3597151100163</v>
       </c>
       <c r="X27" t="n">
-        <v>251.2911654389114</v>
+        <v>546.4928828721681</v>
       </c>
       <c r="Y27" t="n">
-        <v>241.2916345196946</v>
+        <v>536.4933519529513</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>35.91669941514206</v>
+        <v>44.73295697440617</v>
       </c>
       <c r="C28" t="n">
-        <v>35.91669941514206</v>
+        <v>44.73295697440617</v>
       </c>
       <c r="D28" t="n">
-        <v>35.91669941514206</v>
+        <v>44.73295697440617</v>
       </c>
       <c r="E28" t="n">
-        <v>35.91669941514206</v>
+        <v>44.73295697440617</v>
       </c>
       <c r="F28" t="n">
-        <v>35.91669941514206</v>
+        <v>44.73295697440617</v>
       </c>
       <c r="G28" t="n">
-        <v>35.91669941514206</v>
+        <v>44.73295697440617</v>
       </c>
       <c r="H28" t="n">
-        <v>35.91669941514206</v>
+        <v>91.91670631504724</v>
       </c>
       <c r="I28" t="n">
-        <v>35.91669941514206</v>
+        <v>91.91670631504724</v>
       </c>
       <c r="J28" t="n">
-        <v>128.2293909268232</v>
+        <v>91.91670631504724</v>
       </c>
       <c r="K28" t="n">
-        <v>128.2293909268232</v>
+        <v>91.91670631504724</v>
       </c>
       <c r="L28" t="n">
-        <v>128.2293909268232</v>
+        <v>91.91670631504724</v>
       </c>
       <c r="M28" t="n">
-        <v>128.2293909268232</v>
+        <v>91.91670631504724</v>
       </c>
       <c r="N28" t="n">
-        <v>128.2293909268232</v>
+        <v>91.91670631504724</v>
       </c>
       <c r="O28" t="n">
-        <v>266.162514176009</v>
+        <v>266.1625141760092</v>
       </c>
       <c r="P28" t="n">
-        <v>266.162514176009</v>
+        <v>266.1625141760092</v>
       </c>
       <c r="Q28" t="n">
-        <v>266.162514176009</v>
+        <v>266.1625141760092</v>
       </c>
       <c r="R28" t="n">
-        <v>266.162514176009</v>
+        <v>266.1625141760092</v>
       </c>
       <c r="S28" t="n">
-        <v>243.9874698909792</v>
+        <v>243.9874698909794</v>
       </c>
       <c r="T28" t="n">
-        <v>233.6068558239872</v>
+        <v>233.6068558239874</v>
       </c>
       <c r="U28" t="n">
-        <v>157.6757382032149</v>
+        <v>157.675738203215</v>
       </c>
       <c r="V28" t="n">
-        <v>125.7320365259938</v>
+        <v>125.7320365259939</v>
       </c>
       <c r="W28" t="n">
-        <v>48.13006019737329</v>
+        <v>48.13006019737336</v>
       </c>
       <c r="X28" t="n">
-        <v>39.61015627389701</v>
+        <v>39.61015627389705</v>
       </c>
       <c r="Y28" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514208</v>
       </c>
     </row>
     <row r="29">
@@ -6437,40 +6437,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1020.89842248961</v>
+        <v>1020.898422489611</v>
       </c>
       <c r="C29" t="n">
-        <v>882.7966579874103</v>
+        <v>882.7966579874109</v>
       </c>
       <c r="D29" t="n">
-        <v>757.2538204942524</v>
+        <v>757.253820494253</v>
       </c>
       <c r="E29" t="n">
-        <v>597.663758335025</v>
+        <v>597.6637583350256</v>
       </c>
       <c r="F29" t="n">
-        <v>406.0329511471337</v>
+        <v>406.0329511471342</v>
       </c>
       <c r="G29" t="n">
-        <v>198.6052517141564</v>
+        <v>198.6052517141569</v>
       </c>
       <c r="H29" t="n">
-        <v>63.71974859844977</v>
+        <v>63.71974859845021</v>
       </c>
       <c r="I29" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="J29" t="n">
-        <v>171.2527996589544</v>
+        <v>171.252799658955</v>
       </c>
       <c r="K29" t="n">
-        <v>375.9427824528775</v>
+        <v>375.9427824528777</v>
       </c>
       <c r="L29" t="n">
-        <v>634.0135279523986</v>
+        <v>634.0135279523988</v>
       </c>
       <c r="M29" t="n">
-        <v>926.2253300581069</v>
+        <v>926.2253300581071</v>
       </c>
       <c r="N29" t="n">
         <v>1212.90312621256</v>
@@ -6482,31 +6482,31 @@
         <v>1654.882514315172</v>
       </c>
       <c r="Q29" t="n">
-        <v>1777.417797666885</v>
+        <v>1777.417797666886</v>
       </c>
       <c r="R29" t="n">
-        <v>1795.834970757103</v>
+        <v>1795.834970757104</v>
       </c>
       <c r="S29" t="n">
-        <v>1781.660986883924</v>
+        <v>1781.660986883925</v>
       </c>
       <c r="T29" t="n">
-        <v>1772.589137514411</v>
+        <v>1772.58913751441</v>
       </c>
       <c r="U29" t="n">
         <v>1735.552985020826</v>
       </c>
       <c r="V29" t="n">
-        <v>1627.073153621684</v>
+        <v>1627.073153621683</v>
       </c>
       <c r="W29" t="n">
-        <v>1501.404756347173</v>
+        <v>1501.404756347172</v>
       </c>
       <c r="X29" t="n">
         <v>1353.629035366662</v>
       </c>
       <c r="Y29" t="n">
-        <v>1183.123159715703</v>
+        <v>1183.123159715704</v>
       </c>
     </row>
     <row r="30">
@@ -6516,37 +6516,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>336.4854836833985</v>
+        <v>88.92192202514468</v>
       </c>
       <c r="C30" t="n">
-        <v>336.4854836833985</v>
+        <v>88.92192202514468</v>
       </c>
       <c r="D30" t="n">
-        <v>336.4854836833985</v>
+        <v>88.92192202514468</v>
       </c>
       <c r="E30" t="n">
-        <v>162.9222798048129</v>
+        <v>88.92192202514468</v>
       </c>
       <c r="F30" t="n">
-        <v>162.9222798048129</v>
+        <v>88.92192202514468</v>
       </c>
       <c r="G30" t="n">
-        <v>162.9222798048129</v>
+        <v>88.92192202514468</v>
       </c>
       <c r="H30" t="n">
-        <v>35.91669941514206</v>
+        <v>88.92192202514468</v>
       </c>
       <c r="I30" t="n">
-        <v>35.91669941514206</v>
+        <v>88.92192202514468</v>
       </c>
       <c r="J30" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="K30" t="n">
-        <v>73.88002543102243</v>
+        <v>73.88002543102246</v>
       </c>
       <c r="L30" t="n">
-        <v>191.2129445593965</v>
+        <v>191.2129445593966</v>
       </c>
       <c r="M30" t="n">
         <v>372.889591163402</v>
@@ -6564,28 +6564,28 @@
         <v>793.1206204512955</v>
       </c>
       <c r="R30" t="n">
-        <v>657.0400135936413</v>
+        <v>793.1206204512955</v>
       </c>
       <c r="S30" t="n">
-        <v>657.0400135936413</v>
+        <v>793.1206204512955</v>
       </c>
       <c r="T30" t="n">
-        <v>655.5388286628441</v>
+        <v>575.9782733750427</v>
       </c>
       <c r="U30" t="n">
-        <v>631.5556781851799</v>
+        <v>551.9951228973785</v>
       </c>
       <c r="V30" t="n">
-        <v>604.1171222342696</v>
+        <v>335.0815452333978</v>
       </c>
       <c r="W30" t="n">
-        <v>550.3597151100165</v>
+        <v>281.3241381091447</v>
       </c>
       <c r="X30" t="n">
-        <v>525.0208675295503</v>
+        <v>277.4573058712966</v>
       </c>
       <c r="Y30" t="n">
-        <v>515.0213366103335</v>
+        <v>267.4577749520798</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>66.63143917679393</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="C31" t="n">
-        <v>66.63143917679393</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="D31" t="n">
-        <v>134.2505184473513</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="E31" t="n">
-        <v>134.2505184473513</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="F31" t="n">
-        <v>208.0628080698501</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="G31" t="n">
-        <v>208.0628080698501</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="H31" t="n">
-        <v>208.0628080698501</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="I31" t="n">
-        <v>256.2082727013258</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="J31" t="n">
-        <v>256.2082727013258</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="K31" t="n">
-        <v>256.2082727013258</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="L31" t="n">
-        <v>256.2082727013258</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="M31" t="n">
-        <v>256.2082727013258</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="N31" t="n">
-        <v>256.2082727013258</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="O31" t="n">
-        <v>256.2082727013258</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="P31" t="n">
-        <v>256.2082727013258</v>
+        <v>189.3727895226567</v>
       </c>
       <c r="Q31" t="n">
-        <v>256.2082727013258</v>
+        <v>266.1625141760092</v>
       </c>
       <c r="R31" t="n">
-        <v>266.162514176009</v>
+        <v>266.1625141760092</v>
       </c>
       <c r="S31" t="n">
-        <v>243.9874698909792</v>
+        <v>243.9874698909793</v>
       </c>
       <c r="T31" t="n">
-        <v>233.6068558239872</v>
+        <v>233.6068558239874</v>
       </c>
       <c r="U31" t="n">
-        <v>157.6757382032149</v>
+        <v>157.675738203215</v>
       </c>
       <c r="V31" t="n">
-        <v>125.7320365259938</v>
+        <v>125.7320365259939</v>
       </c>
       <c r="W31" t="n">
-        <v>48.13006019737329</v>
+        <v>48.13006019737335</v>
       </c>
       <c r="X31" t="n">
-        <v>39.61015627389701</v>
+        <v>39.61015627389705</v>
       </c>
       <c r="Y31" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514207</v>
       </c>
     </row>
     <row r="32">
@@ -6674,64 +6674,64 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1014.789988510277</v>
+        <v>1014.789988510278</v>
       </c>
       <c r="C32" t="n">
-        <v>877.5242945806677</v>
+        <v>877.5242945806682</v>
       </c>
       <c r="D32" t="n">
-        <v>752.8175276601</v>
+        <v>752.8175276601005</v>
       </c>
       <c r="E32" t="n">
-        <v>594.0635360734627</v>
+        <v>594.0635360734632</v>
       </c>
       <c r="F32" t="n">
-        <v>403.2687994581614</v>
+        <v>403.2687994581619</v>
       </c>
       <c r="G32" t="n">
         <v>196.6771705977754</v>
       </c>
       <c r="H32" t="n">
-        <v>62.62773805465898</v>
+        <v>62.62773805465899</v>
       </c>
       <c r="I32" t="n">
-        <v>35.66075944394098</v>
+        <v>35.660759443941</v>
       </c>
       <c r="J32" t="n">
-        <v>171.8162924559495</v>
+        <v>151.9003389533357</v>
       </c>
       <c r="K32" t="n">
-        <v>377.3257080180681</v>
+        <v>357.4097545154544</v>
       </c>
       <c r="L32" t="n">
-        <v>636.2158862857848</v>
+        <v>616.2999327831711</v>
       </c>
       <c r="M32" t="n">
-        <v>929.2471211596887</v>
+        <v>909.3311676570751</v>
       </c>
       <c r="N32" t="n">
-        <v>1216.065002438137</v>
+        <v>1196.828396579724</v>
       </c>
       <c r="O32" t="n">
-        <v>1462.454972917762</v>
+        <v>1443.218367059349</v>
       </c>
       <c r="P32" t="n">
-        <v>1659.68325607714</v>
+        <v>1640.446650218727</v>
       </c>
       <c r="Q32" t="n">
-        <v>1783.037972197049</v>
+        <v>1763.801366338636</v>
       </c>
       <c r="R32" t="n">
-        <v>1783.037972197049</v>
+        <v>1783.03797219705</v>
       </c>
       <c r="S32" t="n">
-        <v>1769.70005889646</v>
+        <v>1769.700058896461</v>
       </c>
       <c r="T32" t="n">
-        <v>1761.464280099537</v>
+        <v>1761.464280099538</v>
       </c>
       <c r="U32" t="n">
-        <v>1725.264198178542</v>
+        <v>1725.264198178543</v>
       </c>
       <c r="V32" t="n">
         <v>1617.62043735199</v>
@@ -6753,34 +6753,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>35.66075944394098</v>
+        <v>605.1051492313042</v>
       </c>
       <c r="C33" t="n">
-        <v>35.66075944394098</v>
+        <v>605.1051492313042</v>
       </c>
       <c r="D33" t="n">
-        <v>35.66075944394098</v>
+        <v>605.1051492313042</v>
       </c>
       <c r="E33" t="n">
-        <v>35.66075944394098</v>
+        <v>431.5419453527186</v>
       </c>
       <c r="F33" t="n">
-        <v>35.66075944394098</v>
+        <v>271.1142290699627</v>
       </c>
       <c r="G33" t="n">
-        <v>35.66075944394098</v>
+        <v>271.1142290699627</v>
       </c>
       <c r="H33" t="n">
-        <v>35.66075944394098</v>
+        <v>144.1086486802919</v>
       </c>
       <c r="I33" t="n">
-        <v>35.66075944394098</v>
+        <v>35.660759443941</v>
       </c>
       <c r="J33" t="n">
-        <v>35.66075944394098</v>
+        <v>35.660759443941</v>
       </c>
       <c r="K33" t="n">
-        <v>73.62408545982139</v>
+        <v>73.6240854598214</v>
       </c>
       <c r="L33" t="n">
         <v>190.9570045881956</v>
@@ -6801,28 +6801,28 @@
         <v>792.8646804800948</v>
       </c>
       <c r="R33" t="n">
-        <v>792.8646804800948</v>
+        <v>720.6353874364532</v>
       </c>
       <c r="S33" t="n">
-        <v>792.8646804800948</v>
+        <v>720.6353874364532</v>
       </c>
       <c r="T33" t="n">
-        <v>575.722333403842</v>
+        <v>719.9702730782461</v>
       </c>
       <c r="U33" t="n">
-        <v>343.8560361038545</v>
+        <v>696.8231931731719</v>
       </c>
       <c r="V33" t="n">
-        <v>317.2535507255343</v>
+        <v>670.2207077948517</v>
       </c>
       <c r="W33" t="n">
-        <v>47.85498145582559</v>
+        <v>617.2993712431887</v>
       </c>
       <c r="X33" t="n">
-        <v>44.82421979056764</v>
+        <v>614.2686095779308</v>
       </c>
       <c r="Y33" t="n">
-        <v>35.66075944394098</v>
+        <v>605.1051492313042</v>
       </c>
     </row>
     <row r="34">
@@ -6832,46 +6832,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>35.66075944394098</v>
+        <v>35.660759443941</v>
       </c>
       <c r="C34" t="n">
-        <v>83.03748606864494</v>
+        <v>35.660759443941</v>
       </c>
       <c r="D34" t="n">
-        <v>151.4759981073979</v>
+        <v>35.660759443941</v>
       </c>
       <c r="E34" t="n">
-        <v>151.4759981073979</v>
+        <v>35.660759443941</v>
       </c>
       <c r="F34" t="n">
-        <v>226.1077204980923</v>
+        <v>35.660759443941</v>
       </c>
       <c r="G34" t="n">
-        <v>226.1077204980923</v>
+        <v>35.660759443941</v>
       </c>
       <c r="H34" t="n">
-        <v>226.1077204980923</v>
+        <v>35.660759443941</v>
       </c>
       <c r="I34" t="n">
-        <v>226.1077204980923</v>
+        <v>35.660759443941</v>
       </c>
       <c r="J34" t="n">
-        <v>226.1077204980923</v>
+        <v>128.7928837238177</v>
       </c>
       <c r="K34" t="n">
-        <v>226.1077204980923</v>
+        <v>128.7928837238177</v>
       </c>
       <c r="L34" t="n">
-        <v>226.1077204980923</v>
+        <v>128.7928837238177</v>
       </c>
       <c r="M34" t="n">
-        <v>226.1077204980923</v>
+        <v>128.7928837238177</v>
       </c>
       <c r="N34" t="n">
-        <v>260.0540801966771</v>
+        <v>128.7928837238177</v>
       </c>
       <c r="O34" t="n">
-        <v>260.0540801966771</v>
+        <v>128.7928837238177</v>
       </c>
       <c r="P34" t="n">
         <v>260.0540801966771</v>
@@ -6895,13 +6895,13 @@
         <v>122.9678848370224</v>
       </c>
       <c r="W34" t="n">
-        <v>46.20197908099198</v>
+        <v>46.201979080992</v>
       </c>
       <c r="X34" t="n">
-        <v>38.51814573010582</v>
+        <v>38.51814573010584</v>
       </c>
       <c r="Y34" t="n">
-        <v>35.66075944394098</v>
+        <v>35.660759443941</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>623.019067536109</v>
+        <v>623.0190675361092</v>
       </c>
       <c r="C35" t="n">
-        <v>544.0833815513513</v>
+        <v>544.0833815513515</v>
       </c>
       <c r="D35" t="n">
-        <v>477.7066225756357</v>
+        <v>477.7066225756359</v>
       </c>
       <c r="E35" t="n">
         <v>377.2826389338506</v>
@@ -6926,61 +6926,61 @@
         <v>244.8179102634017</v>
       </c>
       <c r="G35" t="n">
-        <v>96.55628934786671</v>
+        <v>96.55628934786677</v>
       </c>
       <c r="H35" t="n">
-        <v>20.83686474960228</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="I35" t="n">
-        <v>51.5757697999871</v>
+        <v>51.03349018653165</v>
       </c>
       <c r="J35" t="n">
-        <v>187.3331564777015</v>
+        <v>244.3582639852896</v>
       </c>
       <c r="K35" t="n">
-        <v>445.1893577540297</v>
+        <v>502.214465261618</v>
       </c>
       <c r="L35" t="n">
-        <v>491.9102002347899</v>
+        <v>548.9353077423782</v>
       </c>
       <c r="M35" t="n">
-        <v>749.7664015111181</v>
+        <v>806.7915090187065</v>
       </c>
       <c r="N35" t="n">
-        <v>1007.622602787446</v>
+        <v>882.1194021543989</v>
       </c>
       <c r="O35" t="n">
-        <v>1041.843237480114</v>
+        <v>916.3400368470667</v>
       </c>
       <c r="P35" t="n">
-        <v>1041.843237480114</v>
+        <v>916.3400368470667</v>
       </c>
       <c r="Q35" t="n">
-        <v>1041.843237480114</v>
+        <v>916.3400368470667</v>
       </c>
       <c r="R35" t="n">
-        <v>1041.843237480114</v>
+        <v>992.7458834922296</v>
       </c>
       <c r="S35" t="n">
-        <v>1041.843237480114</v>
+        <v>992.7458834922296</v>
       </c>
       <c r="T35" t="n">
-        <v>1041.843237480114</v>
+        <v>1041.843237480115</v>
       </c>
       <c r="U35" t="n">
-        <v>1041.843237480114</v>
+        <v>1041.843237480115</v>
       </c>
       <c r="V35" t="n">
-        <v>992.5294845984133</v>
+        <v>992.5294845984138</v>
       </c>
       <c r="W35" t="n">
-        <v>926.0271658413444</v>
+        <v>926.0271658413449</v>
       </c>
       <c r="X35" t="n">
-        <v>837.4175233782764</v>
+        <v>837.4175233782768</v>
       </c>
       <c r="Y35" t="n">
-        <v>726.07772624476</v>
+        <v>726.0777262447604</v>
       </c>
     </row>
     <row r="36">
@@ -6990,34 +6990,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>234.2698036423608</v>
+        <v>398.8804608317358</v>
       </c>
       <c r="C36" t="n">
-        <v>234.2698036423608</v>
+        <v>398.8804608317358</v>
       </c>
       <c r="D36" t="n">
-        <v>234.2698036423608</v>
+        <v>238.1003445927676</v>
       </c>
       <c r="E36" t="n">
-        <v>234.2698036423608</v>
+        <v>64.53714071418204</v>
       </c>
       <c r="F36" t="n">
-        <v>73.84208735960489</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="G36" t="n">
-        <v>73.84208735960489</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="H36" t="n">
-        <v>73.84208735960489</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="I36" t="n">
-        <v>73.84208735960489</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="J36" t="n">
-        <v>20.83686474960228</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="K36" t="n">
-        <v>58.80019076548268</v>
+        <v>58.8001907654827</v>
       </c>
       <c r="L36" t="n">
         <v>176.1331098938568</v>
@@ -7038,28 +7038,28 @@
         <v>778.0407857857559</v>
       </c>
       <c r="R36" t="n">
-        <v>778.0407857857559</v>
+        <v>641.9601789281018</v>
       </c>
       <c r="S36" t="n">
-        <v>778.0407857857559</v>
+        <v>641.9601789281018</v>
       </c>
       <c r="T36" t="n">
-        <v>560.8984387095031</v>
+        <v>641.9601789281018</v>
       </c>
       <c r="U36" t="n">
-        <v>560.8984387095031</v>
+        <v>641.9601789281018</v>
       </c>
       <c r="V36" t="n">
-        <v>560.8984387095031</v>
+        <v>398.8804608317358</v>
       </c>
       <c r="W36" t="n">
-        <v>560.8984387095031</v>
+        <v>398.8804608317358</v>
       </c>
       <c r="X36" t="n">
-        <v>341.3904443261995</v>
+        <v>398.8804608317358</v>
       </c>
       <c r="Y36" t="n">
-        <v>234.2698036423608</v>
+        <v>398.8804608317358</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>20.83686474960228</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="C37" t="n">
-        <v>20.83686474960228</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="D37" t="n">
-        <v>20.83686474960228</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="E37" t="n">
-        <v>20.83686474960228</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="F37" t="n">
-        <v>20.83686474960228</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="G37" t="n">
-        <v>20.83686474960228</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="H37" t="n">
-        <v>20.83686474960228</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="I37" t="n">
-        <v>20.83686474960228</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="J37" t="n">
-        <v>20.83686474960228</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="K37" t="n">
-        <v>20.83686474960228</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="L37" t="n">
-        <v>20.83686474960228</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="M37" t="n">
-        <v>20.83686474960228</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="N37" t="n">
-        <v>20.83686474960228</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="O37" t="n">
-        <v>20.83686474960228</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="P37" t="n">
-        <v>20.83686474960228</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="Q37" t="n">
-        <v>20.83686474960228</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="R37" t="n">
-        <v>20.83686474960228</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="S37" t="n">
-        <v>20.83686474960228</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="T37" t="n">
-        <v>56.03780166411075</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="U37" t="n">
-        <v>39.27276256078061</v>
+        <v>39.27276256078068</v>
       </c>
       <c r="V37" t="n">
-        <v>39.27276256078061</v>
+        <v>39.27276256078068</v>
       </c>
       <c r="W37" t="n">
-        <v>20.83686474960228</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="X37" t="n">
-        <v>20.83686474960228</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="Y37" t="n">
-        <v>20.83686474960228</v>
+        <v>20.83686474960229</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>623.0190675361096</v>
+        <v>623.0190675361098</v>
       </c>
       <c r="C38" t="n">
-        <v>544.083381551352</v>
+        <v>544.0833815513521</v>
       </c>
       <c r="D38" t="n">
         <v>477.7066225756363</v>
@@ -7163,61 +7163,61 @@
         <v>244.8179102634018</v>
       </c>
       <c r="G38" t="n">
-        <v>96.55628934786671</v>
+        <v>96.55628934786677</v>
       </c>
       <c r="H38" t="n">
-        <v>20.83686474960228</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="I38" t="n">
-        <v>51.5757697999871</v>
+        <v>51.57576979998706</v>
       </c>
       <c r="J38" t="n">
-        <v>51.5757697999871</v>
+        <v>51.57576979998706</v>
       </c>
       <c r="K38" t="n">
-        <v>51.5757697999871</v>
+        <v>51.57576979998706</v>
       </c>
       <c r="L38" t="n">
-        <v>98.29661228074728</v>
+        <v>98.29661228074724</v>
       </c>
       <c r="M38" t="n">
-        <v>356.1528135570755</v>
+        <v>304.0793844751173</v>
       </c>
       <c r="N38" t="n">
-        <v>523.6037679467746</v>
+        <v>561.9355857514456</v>
       </c>
       <c r="O38" t="n">
-        <v>557.8244026394424</v>
+        <v>596.1562204441134</v>
       </c>
       <c r="P38" t="n">
-        <v>812.2219265855706</v>
+        <v>850.5537443902416</v>
       </c>
       <c r="Q38" t="n">
-        <v>992.745883492229</v>
+        <v>850.5537443902416</v>
       </c>
       <c r="R38" t="n">
-        <v>992.745883492229</v>
+        <v>926.9595910354045</v>
       </c>
       <c r="S38" t="n">
-        <v>992.745883492229</v>
+        <v>971.0563429962468</v>
       </c>
       <c r="T38" t="n">
-        <v>1041.843237480114</v>
+        <v>1020.153696984132</v>
       </c>
       <c r="U38" t="n">
-        <v>1041.843237480114</v>
+        <v>1041.843237480115</v>
       </c>
       <c r="V38" t="n">
-        <v>992.5294845984138</v>
+        <v>992.5294845984142</v>
       </c>
       <c r="W38" t="n">
-        <v>926.027165841345</v>
+        <v>926.0271658413453</v>
       </c>
       <c r="X38" t="n">
-        <v>837.4175233782769</v>
+        <v>837.4175233782772</v>
       </c>
       <c r="Y38" t="n">
-        <v>726.0777262447606</v>
+        <v>726.0777262447609</v>
       </c>
     </row>
     <row r="39">
@@ -7227,34 +7227,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>331.511656259254</v>
+        <v>315.4530733060864</v>
       </c>
       <c r="C39" t="n">
-        <v>331.511656259254</v>
+        <v>315.4530733060864</v>
       </c>
       <c r="D39" t="n">
-        <v>331.511656259254</v>
+        <v>315.4530733060864</v>
       </c>
       <c r="E39" t="n">
-        <v>331.511656259254</v>
+        <v>279.5318292128489</v>
       </c>
       <c r="F39" t="n">
-        <v>171.0839399764981</v>
+        <v>279.5318292128489</v>
       </c>
       <c r="G39" t="n">
-        <v>20.83686474960228</v>
+        <v>129.2847539859532</v>
       </c>
       <c r="H39" t="n">
-        <v>20.83686474960228</v>
+        <v>129.2847539859532</v>
       </c>
       <c r="I39" t="n">
-        <v>20.83686474960228</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="J39" t="n">
-        <v>20.83686474960228</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="K39" t="n">
-        <v>58.80019076548268</v>
+        <v>58.8001907654827</v>
       </c>
       <c r="L39" t="n">
         <v>176.1331098938568</v>
@@ -7281,22 +7281,22 @@
         <v>778.0407857857559</v>
       </c>
       <c r="T39" t="n">
-        <v>560.8984387095031</v>
+        <v>778.0407857857559</v>
       </c>
       <c r="U39" t="n">
-        <v>560.8984387095031</v>
+        <v>778.0407857857559</v>
       </c>
       <c r="V39" t="n">
-        <v>331.511656259254</v>
+        <v>534.96106768939</v>
       </c>
       <c r="W39" t="n">
-        <v>331.511656259254</v>
+        <v>534.96106768939</v>
       </c>
       <c r="X39" t="n">
-        <v>331.511656259254</v>
+        <v>315.4530733060864</v>
       </c>
       <c r="Y39" t="n">
-        <v>331.511656259254</v>
+        <v>315.4530733060864</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>56.03780166411075</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="C40" t="n">
-        <v>56.03780166411075</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="D40" t="n">
-        <v>56.03780166411075</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="E40" t="n">
-        <v>56.03780166411075</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="F40" t="n">
-        <v>56.03780166411075</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="G40" t="n">
-        <v>56.03780166411075</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="H40" t="n">
-        <v>56.03780166411075</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="I40" t="n">
-        <v>56.03780166411075</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="J40" t="n">
-        <v>56.03780166411075</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="K40" t="n">
-        <v>56.03780166411075</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="L40" t="n">
-        <v>56.03780166411075</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="M40" t="n">
-        <v>56.03780166411075</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="N40" t="n">
-        <v>56.03780166411075</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="O40" t="n">
-        <v>56.03780166411075</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="P40" t="n">
-        <v>56.03780166411075</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="Q40" t="n">
-        <v>56.03780166411075</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="R40" t="n">
-        <v>56.03780166411075</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="S40" t="n">
-        <v>56.03780166411075</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="T40" t="n">
-        <v>56.03780166411075</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="U40" t="n">
-        <v>39.27276256078061</v>
+        <v>39.27276256078068</v>
       </c>
       <c r="V40" t="n">
-        <v>39.27276256078061</v>
+        <v>39.27276256078068</v>
       </c>
       <c r="W40" t="n">
-        <v>20.83686474960228</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="X40" t="n">
-        <v>56.03780166411075</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="Y40" t="n">
-        <v>56.03780166411075</v>
+        <v>20.83686474960229</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>818.4263542753165</v>
       </c>
       <c r="C41" t="n">
-        <v>708.1276389564247</v>
+        <v>708.1276389564248</v>
       </c>
       <c r="D41" t="n">
         <v>610.3878506465751</v>
@@ -7397,16 +7397,16 @@
         <v>478.6008376706557</v>
       </c>
       <c r="F41" t="n">
-        <v>314.7730796660726</v>
+        <v>314.7730796660724</v>
       </c>
       <c r="G41" t="n">
         <v>135.1484294164039</v>
       </c>
       <c r="H41" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="I41" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="J41" t="n">
         <v>190.6518442323786</v>
@@ -7415,25 +7415,25 @@
         <v>422.5915955308619</v>
       </c>
       <c r="L41" t="n">
-        <v>469.3124380116221</v>
+        <v>707.9121095349434</v>
       </c>
       <c r="M41" t="n">
-        <v>788.7740086218907</v>
+        <v>1027.373680145212</v>
       </c>
       <c r="N41" t="n">
-        <v>1102.701573280905</v>
+        <v>1291.694902064864</v>
       </c>
       <c r="O41" t="n">
-        <v>1136.922207973572</v>
+        <v>1325.915536757532</v>
       </c>
       <c r="P41" t="n">
-        <v>1176.130484901259</v>
+        <v>1325.915536757532</v>
       </c>
       <c r="Q41" t="n">
         <v>1325.915536757532</v>
       </c>
       <c r="R41" t="n">
-        <v>1371.582478352311</v>
+        <v>1371.58247835231</v>
       </c>
       <c r="S41" t="n">
         <v>1384.940325262768</v>
@@ -7464,31 +7464,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>391.0414536296272</v>
+        <v>508.932482933116</v>
       </c>
       <c r="C42" t="n">
-        <v>201.6291793625909</v>
+        <v>508.932482933116</v>
       </c>
       <c r="D42" t="n">
-        <v>201.6291793625909</v>
+        <v>508.932482933116</v>
       </c>
       <c r="E42" t="n">
-        <v>28.06597548400537</v>
+        <v>335.3692790545305</v>
       </c>
       <c r="F42" t="n">
-        <v>28.06597548400537</v>
+        <v>335.3692790545305</v>
       </c>
       <c r="G42" t="n">
-        <v>28.06597548400537</v>
+        <v>185.1222038276347</v>
       </c>
       <c r="H42" t="n">
-        <v>28.06597548400537</v>
+        <v>185.1222038276347</v>
       </c>
       <c r="I42" t="n">
-        <v>28.06597548400537</v>
+        <v>76.67431459128382</v>
       </c>
       <c r="J42" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="K42" t="n">
         <v>66.02930149988578</v>
@@ -7509,31 +7509,31 @@
         <v>785.269896520159</v>
       </c>
       <c r="Q42" t="n">
-        <v>785.269896520159</v>
+        <v>778.3310522028247</v>
       </c>
       <c r="R42" t="n">
-        <v>785.269896520159</v>
+        <v>778.3310522028247</v>
       </c>
       <c r="S42" t="n">
-        <v>785.269896520159</v>
+        <v>778.3310522028247</v>
       </c>
       <c r="T42" t="n">
-        <v>660.0755296669381</v>
+        <v>778.3310522028247</v>
       </c>
       <c r="U42" t="n">
-        <v>660.0755296669381</v>
+        <v>778.3310522028247</v>
       </c>
       <c r="V42" t="n">
-        <v>416.9958115705722</v>
+        <v>778.3310522028247</v>
       </c>
       <c r="W42" t="n">
-        <v>391.0414536296272</v>
+        <v>508.932482933116</v>
       </c>
       <c r="X42" t="n">
-        <v>391.0414536296272</v>
+        <v>508.932482933116</v>
       </c>
       <c r="Y42" t="n">
-        <v>391.0414536296272</v>
+        <v>508.932482933116</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="C43" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="D43" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="E43" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="F43" t="n">
-        <v>53.03171161445226</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="G43" t="n">
-        <v>124.6176159598926</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="H43" t="n">
-        <v>124.6176159598926</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="I43" t="n">
-        <v>124.6176159598926</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="J43" t="n">
-        <v>124.6176159598926</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="K43" t="n">
-        <v>124.6176159598926</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="L43" t="n">
-        <v>124.6176159598926</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="M43" t="n">
-        <v>124.6176159598926</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="N43" t="n">
-        <v>124.6176159598926</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="O43" t="n">
-        <v>124.6176159598926</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="P43" t="n">
-        <v>124.6176159598926</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="Q43" t="n">
-        <v>124.6176159598926</v>
+        <v>130.133623560695</v>
       </c>
       <c r="R43" t="n">
-        <v>124.6176159598926</v>
+        <v>130.133623560695</v>
       </c>
       <c r="S43" t="n">
-        <v>130.1336235606951</v>
+        <v>130.133623560695</v>
       </c>
       <c r="T43" t="n">
-        <v>130.1336235606951</v>
+        <v>130.133623560695</v>
       </c>
       <c r="U43" t="n">
-        <v>82.00555512323083</v>
+        <v>82.00555512323078</v>
       </c>
       <c r="V43" t="n">
-        <v>77.86490262931781</v>
+        <v>77.86490262931778</v>
       </c>
       <c r="W43" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="X43" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400536</v>
       </c>
     </row>
     <row r="44">
@@ -7625,55 +7625,55 @@
         <v>818.4263542753171</v>
       </c>
       <c r="C44" t="n">
-        <v>708.1276389564255</v>
+        <v>708.1276389564252</v>
       </c>
       <c r="D44" t="n">
-        <v>610.3878506465755</v>
+        <v>610.3878506465753</v>
       </c>
       <c r="E44" t="n">
-        <v>478.6008376706559</v>
+        <v>478.6008376706557</v>
       </c>
       <c r="F44" t="n">
-        <v>314.7730796660726</v>
+        <v>314.7730796660723</v>
       </c>
       <c r="G44" t="n">
         <v>135.1484294164039</v>
       </c>
       <c r="H44" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="I44" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="J44" t="n">
-        <v>28.06597548400537</v>
+        <v>190.6518442323786</v>
       </c>
       <c r="K44" t="n">
-        <v>226.7098713384933</v>
+        <v>422.5915955308619</v>
       </c>
       <c r="L44" t="n">
-        <v>273.4307138192535</v>
+        <v>707.9121095349434</v>
       </c>
       <c r="M44" t="n">
-        <v>592.8922844295221</v>
+        <v>1027.373680145212</v>
       </c>
       <c r="N44" t="n">
-        <v>906.8198490885358</v>
+        <v>1291.694902064864</v>
       </c>
       <c r="O44" t="n">
-        <v>1179.640155304525</v>
+        <v>1325.915536757532</v>
       </c>
       <c r="P44" t="n">
-        <v>1403.298774200268</v>
+        <v>1325.915536757532</v>
       </c>
       <c r="Q44" t="n">
-        <v>1403.298774200268</v>
+        <v>1325.915536757532</v>
       </c>
       <c r="R44" t="n">
-        <v>1403.298774200268</v>
+        <v>1371.58247835231</v>
       </c>
       <c r="S44" t="n">
-        <v>1403.298774200268</v>
+        <v>1384.940325262768</v>
       </c>
       <c r="T44" t="n">
         <v>1403.298774200268</v>
@@ -7682,7 +7682,7 @@
         <v>1394.065670889992</v>
       </c>
       <c r="V44" t="n">
-        <v>1313.388888674158</v>
+        <v>1313.388888674157</v>
       </c>
       <c r="W44" t="n">
         <v>1215.523540582955</v>
@@ -7701,31 +7701,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>251.1730269562364</v>
+        <v>136.5138647203562</v>
       </c>
       <c r="C45" t="n">
-        <v>251.1730269562364</v>
+        <v>136.5138647203562</v>
       </c>
       <c r="D45" t="n">
-        <v>251.1730269562364</v>
+        <v>136.5138647203562</v>
       </c>
       <c r="E45" t="n">
-        <v>251.1730269562364</v>
+        <v>136.5138647203562</v>
       </c>
       <c r="F45" t="n">
-        <v>231.3182733209038</v>
+        <v>136.5138647203562</v>
       </c>
       <c r="G45" t="n">
-        <v>81.07119809400798</v>
+        <v>136.5138647203562</v>
       </c>
       <c r="H45" t="n">
-        <v>81.07119809400798</v>
+        <v>136.5138647203562</v>
       </c>
       <c r="I45" t="n">
-        <v>81.07119809400798</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="J45" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="K45" t="n">
         <v>66.02930149988578</v>
@@ -7749,28 +7749,28 @@
         <v>785.2698965201589</v>
       </c>
       <c r="R45" t="n">
-        <v>649.1892896625047</v>
+        <v>785.2698965201589</v>
       </c>
       <c r="S45" t="n">
-        <v>455.6632378241165</v>
+        <v>785.2698965201589</v>
       </c>
       <c r="T45" t="n">
-        <v>455.6632378241165</v>
+        <v>785.2698965201589</v>
       </c>
       <c r="U45" t="n">
-        <v>455.6632378241165</v>
+        <v>785.2698965201589</v>
       </c>
       <c r="V45" t="n">
-        <v>455.6632378241165</v>
+        <v>542.190178423793</v>
       </c>
       <c r="W45" t="n">
-        <v>429.7088798831715</v>
+        <v>516.235820482848</v>
       </c>
       <c r="X45" t="n">
-        <v>429.7088798831715</v>
+        <v>362.1545577850286</v>
       </c>
       <c r="Y45" t="n">
-        <v>429.7088798831715</v>
+        <v>136.5138647203562</v>
       </c>
     </row>
     <row r="46">
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>90.8248955490082</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="C46" t="n">
-        <v>90.8248955490082</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="D46" t="n">
-        <v>90.8248955490082</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="E46" t="n">
-        <v>90.8248955490082</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="F46" t="n">
-        <v>90.8248955490082</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="G46" t="n">
-        <v>130.1336235606951</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="H46" t="n">
-        <v>130.1336235606951</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="I46" t="n">
-        <v>130.1336235606951</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="J46" t="n">
-        <v>130.1336235606951</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="K46" t="n">
-        <v>130.1336235606951</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="L46" t="n">
         <v>130.1336235606951</v>
@@ -7843,13 +7843,13 @@
         <v>77.86490262931781</v>
       </c>
       <c r="W46" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="X46" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400536</v>
       </c>
     </row>
   </sheetData>
@@ -8532,19 +8532,19 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K9" t="n">
-        <v>171.3658051887314</v>
+        <v>168.166555548718</v>
       </c>
       <c r="L9" t="n">
-        <v>172.1063303597423</v>
+        <v>169.0363433314465</v>
       </c>
       <c r="M9" t="n">
-        <v>173.4035213848624</v>
+        <v>176.6027710248758</v>
       </c>
       <c r="N9" t="n">
-        <v>163.4361383816801</v>
+        <v>163.3068757699624</v>
       </c>
       <c r="O9" t="n">
-        <v>173.9674182222222</v>
+        <v>177.1666678622357</v>
       </c>
       <c r="P9" t="n">
         <v>166.6480266854964</v>
@@ -8778,7 +8778,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N12" t="n">
-        <v>292.1370682466384</v>
+        <v>292.1370682466383</v>
       </c>
       <c r="O12" t="n">
         <v>255.2227828913207</v>
@@ -9015,7 +9015,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N15" t="n">
-        <v>292.1370682466384</v>
+        <v>292.1370682466383</v>
       </c>
       <c r="O15" t="n">
         <v>255.2227828913207</v>
@@ -9726,7 +9726,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N24" t="n">
-        <v>292.1370682466384</v>
+        <v>292.1370682466382</v>
       </c>
       <c r="O24" t="n">
         <v>255.2227828913207</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>20.59346288666681</v>
+        <v>195.9389762247655</v>
       </c>
       <c r="C11" t="n">
-        <v>172.0572332281109</v>
+        <v>172.057233228111</v>
       </c>
       <c r="D11" t="n">
-        <v>159.6238954891594</v>
+        <v>159.6238954891595</v>
       </c>
       <c r="E11" t="n">
-        <v>193.3306479085683</v>
+        <v>4.832714589321142</v>
       </c>
       <c r="F11" t="n">
-        <v>36.55305216769841</v>
+        <v>36.55305216769847</v>
       </c>
       <c r="G11" t="n">
-        <v>52.19197549033348</v>
+        <v>52.19197549033353</v>
       </c>
       <c r="H11" t="n">
-        <v>168.8731344554827</v>
+        <v>19.57743601718902</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>62.86150506240824</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,28 +23303,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>16.73328122929895</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>49.36873040538029</v>
+        <v>49.36873040538038</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>44.31761724675145</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>72.00227733958195</v>
       </c>
       <c r="V11" t="n">
-        <v>142.7315194560841</v>
+        <v>142.7315194560842</v>
       </c>
       <c r="W11" t="n">
-        <v>159.748199672699</v>
+        <v>159.7481996726991</v>
       </c>
       <c r="X11" t="n">
-        <v>181.6344501416382</v>
+        <v>181.6344501416383</v>
       </c>
       <c r="Y11" t="n">
-        <v>204.137303265382</v>
+        <v>204.1373032653821</v>
       </c>
     </row>
     <row r="12">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>195.9389762247654</v>
+        <v>7.441042905518316</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>172.057233228111</v>
       </c>
       <c r="D14" t="n">
-        <v>159.6238954891593</v>
+        <v>159.6238954891595</v>
       </c>
       <c r="E14" t="n">
-        <v>4.832714589321029</v>
+        <v>193.3306479085684</v>
       </c>
       <c r="F14" t="n">
-        <v>225.0509854869455</v>
+        <v>225.0509854869457</v>
       </c>
       <c r="G14" t="n">
-        <v>234.7017099528492</v>
+        <v>176.4071380231859</v>
       </c>
       <c r="H14" t="n">
-        <v>168.8731344554826</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>62.8615050624081</v>
+        <v>62.86150506240824</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,28 +23540,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>16.73328122929903</v>
       </c>
       <c r="S14" t="n">
-        <v>49.36873040538023</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>44.31761724675131</v>
+        <v>44.31761724675144</v>
       </c>
       <c r="U14" t="n">
-        <v>72.00227733958181</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>142.7315194560841</v>
+        <v>142.7315194560842</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>159.7481996726991</v>
       </c>
       <c r="X14" t="n">
-        <v>181.6344501416382</v>
+        <v>181.6344501416383</v>
       </c>
       <c r="Y14" t="n">
-        <v>15.63936994613476</v>
+        <v>15.63936994613488</v>
       </c>
     </row>
     <row r="15">
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>264579.5985529378</v>
+        <v>264579.5985529377</v>
       </c>
       <c r="C2" t="n">
         <v>264579.5985529378</v>
@@ -26326,16 +26326,16 @@
         <v>227920.6286247404</v>
       </c>
       <c r="G2" t="n">
-        <v>265115.564657561</v>
+        <v>265115.5646575609</v>
       </c>
       <c r="H2" t="n">
-        <v>265115.5646575609</v>
+        <v>265115.5646575608</v>
       </c>
       <c r="I2" t="n">
         <v>265115.5646575608</v>
       </c>
       <c r="J2" t="n">
-        <v>265115.5646575609</v>
+        <v>265115.5646575606</v>
       </c>
       <c r="K2" t="n">
         <v>265115.5646575608</v>
@@ -26350,10 +26350,10 @@
         <v>265115.5646575608</v>
       </c>
       <c r="O2" t="n">
+        <v>265115.5646575608</v>
+      </c>
+      <c r="P2" t="n">
         <v>265115.5646575607</v>
-      </c>
-      <c r="P2" t="n">
-        <v>265115.5646575609</v>
       </c>
     </row>
     <row r="3">
@@ -26375,10 +26375,10 @@
         <v>279126.1151787142</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>95439.52541913318</v>
+        <v>95439.52541913334</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,19 +26390,19 @@
         <v>143496.2830068793</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>96101.69331262454</v>
+        <v>96101.69331262473</v>
       </c>
       <c r="M3" t="n">
-        <v>46197.36629232284</v>
+        <v>46197.3662923228</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72254.91485924384</v>
+        <v>72254.91485924376</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26433,7 +26433,7 @@
         <v>366826.3686005261</v>
       </c>
       <c r="H4" t="n">
-        <v>366826.368600526</v>
+        <v>366826.3686005261</v>
       </c>
       <c r="I4" t="n">
         <v>366826.3686005261</v>
@@ -26445,7 +26445,7 @@
         <v>367614.5661588978</v>
       </c>
       <c r="L4" t="n">
-        <v>367599.7761915191</v>
+        <v>367599.776191519</v>
       </c>
       <c r="M4" t="n">
         <v>366789.8388182006</v>
@@ -26476,25 +26476,25 @@
         <v>33822.11437811282</v>
       </c>
       <c r="E5" t="n">
-        <v>28642.9569377478</v>
+        <v>28642.95693774779</v>
       </c>
       <c r="F5" t="n">
-        <v>28642.9569377478</v>
+        <v>28642.95693774779</v>
       </c>
       <c r="G5" t="n">
-        <v>38672.33876582418</v>
+        <v>38672.33876582419</v>
       </c>
       <c r="H5" t="n">
-        <v>38672.33876582418</v>
+        <v>38672.33876582419</v>
       </c>
       <c r="I5" t="n">
         <v>38672.33876582418</v>
       </c>
       <c r="J5" t="n">
-        <v>47449.6772201635</v>
+        <v>47449.67722016352</v>
       </c>
       <c r="K5" t="n">
-        <v>47449.6772201635</v>
+        <v>47449.67722016352</v>
       </c>
       <c r="L5" t="n">
         <v>47324.7475828481</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-178128.1245002775</v>
+        <v>-178132.5908844827</v>
       </c>
       <c r="C6" t="n">
-        <v>-178128.1245002775</v>
+        <v>-178132.5908844827</v>
       </c>
       <c r="D6" t="n">
-        <v>-179001.4521293043</v>
+        <v>-179004.6452121528</v>
       </c>
       <c r="E6" t="n">
-        <v>-376066.9440490259</v>
+        <v>-376376.9018492993</v>
       </c>
       <c r="F6" t="n">
-        <v>-96940.82887031167</v>
+        <v>-97250.78667058513</v>
       </c>
       <c r="G6" t="n">
-        <v>-235822.6681279225</v>
+        <v>-235822.6681279227</v>
       </c>
       <c r="H6" t="n">
-        <v>-140383.1427087893</v>
+        <v>-140383.1427087895</v>
       </c>
       <c r="I6" t="n">
-        <v>-140383.1427087894</v>
+        <v>-140383.1427087895</v>
       </c>
       <c r="J6" t="n">
-        <v>-293444.9617283797</v>
+        <v>-293444.9617283801</v>
       </c>
       <c r="K6" t="n">
         <v>-149948.6787215006</v>
       </c>
       <c r="L6" t="n">
-        <v>-245910.6524294309</v>
+        <v>-245910.6524294311</v>
       </c>
       <c r="M6" t="n">
         <v>-188784.93605165</v>
       </c>
       <c r="N6" t="n">
-        <v>-142587.5697593271</v>
+        <v>-142587.5697593272</v>
       </c>
       <c r="O6" t="n">
-        <v>-218113.3795124746</v>
+        <v>-218113.3795124745</v>
       </c>
       <c r="P6" t="n">
-        <v>-145858.4646532306</v>
+        <v>-145858.4646532308</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="F2" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="G2" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="H2" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="I2" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="J2" t="n">
         <v>213.484750524001</v>
@@ -26716,10 +26716,10 @@
         <v>214.3124603908652</v>
       </c>
       <c r="M2" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="N2" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="O2" t="n">
         <v>241.009769215476</v>
@@ -26808,28 +26808,28 @@
         <v>188.4979333192472</v>
       </c>
       <c r="I4" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="J4" t="n">
-        <v>448.9587426892758</v>
+        <v>448.9587426892759</v>
       </c>
       <c r="K4" t="n">
-        <v>448.9587426892758</v>
+        <v>448.9587426892759</v>
       </c>
       <c r="L4" t="n">
-        <v>445.7594930492623</v>
+        <v>445.7594930492624</v>
       </c>
       <c r="M4" t="n">
-        <v>260.4608093700285</v>
+        <v>260.4608093700286</v>
       </c>
       <c r="N4" t="n">
-        <v>260.4608093700285</v>
+        <v>260.4608093700286</v>
       </c>
       <c r="O4" t="n">
-        <v>350.8246935500671</v>
+        <v>350.824693550067</v>
       </c>
       <c r="P4" t="n">
-        <v>350.8246935500671</v>
+        <v>350.824693550067</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>119.2994067739165</v>
+        <v>119.2994067739167</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>94.18534375008448</v>
+        <v>94.18534375008431</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>120.1271166407807</v>
+        <v>120.1271166407809</v>
       </c>
       <c r="M2" t="n">
-        <v>57.74670786540355</v>
+        <v>57.74670786540349</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>63.13594470929172</v>
+        <v>63.13594470929166</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>260.4608093700285</v>
+        <v>260.4608093700289</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>90.36388418003855</v>
+        <v>90.36388418003838</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>119.2994067739165</v>
+        <v>119.2994067739167</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>94.18534375008448</v>
+        <v>94.18534375008431</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>374.0872403778333</v>
+        <v>374.2171558310243</v>
       </c>
       <c r="C8" t="n">
         <v>350.2054973811788</v>
       </c>
       <c r="D8" t="n">
-        <v>337.9020750954183</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E8" t="n">
         <v>371.4789120616362</v>
@@ -27929,13 +27929,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>173.9325953147419</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C9" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D9" t="n">
-        <v>155.9730654365651</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E9" t="n">
         <v>171.8275718397997</v>
@@ -27950,7 +27950,7 @@
         <v>127.8372169228968</v>
       </c>
       <c r="I9" t="n">
-        <v>114.855819447717</v>
+        <v>111.6565698077035</v>
       </c>
       <c r="J9" t="n">
         <v>73.03491363274843</v>
@@ -27974,19 +27974,19 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>34.64768193211606</v>
+        <v>31.44843229210258</v>
       </c>
       <c r="R9" t="n">
-        <v>148.2309527983001</v>
+        <v>145.0317031582867</v>
       </c>
       <c r="S9" t="n">
-        <v>195.63287444794</v>
+        <v>192.8149753650161</v>
       </c>
       <c r="T9" t="n">
         <v>215.8480604164874</v>
       </c>
       <c r="U9" t="n">
-        <v>234.0431365621689</v>
+        <v>237.2423862021824</v>
       </c>
       <c r="V9" t="n">
         <v>240.6489209154022</v>
@@ -27998,7 +27998,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y9" t="n">
-        <v>220.1850364940121</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="10">
@@ -28087,34 +28087,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="C11" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="D11" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="E11" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="F11" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="G11" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="H11" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="I11" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="J11" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="K11" t="n">
-        <v>29.92497582848603</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -28129,34 +28129,34 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>178.1482641530679</v>
+        <v>29.92497582848613</v>
       </c>
       <c r="Q11" t="n">
         <v>89.71173703742195</v>
       </c>
       <c r="R11" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="S11" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="T11" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="U11" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="V11" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="W11" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="X11" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="Y11" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
     </row>
     <row r="12">
@@ -28169,16 +28169,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="D12" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
-        <v>131.4490232755775</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
         <v>148.7446044746268</v>
@@ -28211,31 +28211,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.869455874161034</v>
+        <v>6.869455874161023</v>
       </c>
       <c r="R12" t="n">
         <v>134.7198007890777</v>
       </c>
       <c r="S12" t="n">
-        <v>178.1482641530679</v>
+        <v>3.092858000757104</v>
       </c>
       <c r="T12" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="U12" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="V12" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="W12" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="X12" t="n">
-        <v>178.1482641530679</v>
+        <v>119.1153298064502</v>
       </c>
       <c r="Y12" t="n">
-        <v>178.1482641530679</v>
+        <v>34.88635281477841</v>
       </c>
     </row>
     <row r="13">
@@ -28248,28 +28248,28 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C13" t="n">
-        <v>178.1482641530679</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D13" t="n">
-        <v>178.1482641530679</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E13" t="n">
-        <v>178.1482641530679</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F13" t="n">
-        <v>178.1482641530679</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
-        <v>178.1482641530679</v>
+        <v>168.7007749271525</v>
       </c>
       <c r="H13" t="n">
-        <v>178.1482641530679</v>
+        <v>165.8243976546666</v>
       </c>
       <c r="I13" t="n">
         <v>164.852968067965</v>
       </c>
       <c r="J13" t="n">
-        <v>120.239607582909</v>
+        <v>120.2396075829089</v>
       </c>
       <c r="K13" t="n">
         <v>67.02998013918997</v>
@@ -28278,43 +28278,43 @@
         <v>32.15181624817887</v>
       </c>
       <c r="M13" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="N13" t="n">
-        <v>40.61081175601939</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="O13" t="n">
-        <v>178.1482641530679</v>
+        <v>113.9939823758136</v>
       </c>
       <c r="P13" t="n">
-        <v>58.47859890024887</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="Q13" t="n">
-        <v>178.1482641530679</v>
+        <v>127.2169859636892</v>
       </c>
       <c r="R13" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="S13" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="T13" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="U13" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="V13" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="W13" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="X13" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="Y13" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
     </row>
     <row r="14">
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="C14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="D14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="E14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="F14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="G14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="H14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="I14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="J14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="K14" t="n">
-        <v>6.727192146300958</v>
+        <v>19.41168532311822</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>141.3051631366612</v>
       </c>
       <c r="M14" t="n">
-        <v>106.8192473728358</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>112.4091523741034</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>153.9316356498858</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>47.41441218536718</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="Q14" t="n">
-        <v>89.71173703742195</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="R14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="S14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="T14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="U14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="V14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="W14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="X14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="Y14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
     </row>
     <row r="15">
@@ -28406,28 +28406,28 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="D15" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
-        <v>104.976032989334</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>107.3634103439873</v>
       </c>
       <c r="J15" t="n">
-        <v>52.47517038390259</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28448,31 +28448,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.869455874161034</v>
+        <v>6.869455874161023</v>
       </c>
       <c r="R15" t="n">
         <v>134.7198007890777</v>
       </c>
       <c r="S15" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="T15" t="n">
-        <v>26.4729902862431</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="U15" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="V15" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="W15" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="X15" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="Y15" t="n">
-        <v>178.1482641530679</v>
+        <v>127.7533117601536</v>
       </c>
     </row>
     <row r="16">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="C16" t="n">
         <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
-        <v>145.1826502507107</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="E16" t="n">
-        <v>178.1482641530679</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F16" t="n">
-        <v>138.9268822184467</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="G16" t="n">
-        <v>168.7007749271525</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="H16" t="n">
-        <v>178.1482641530679</v>
+        <v>165.8243976546666</v>
       </c>
       <c r="I16" t="n">
-        <v>178.1482641530679</v>
+        <v>164.852968067965</v>
       </c>
       <c r="J16" t="n">
-        <v>178.1482641530679</v>
+        <v>120.2396075829089</v>
       </c>
       <c r="K16" t="n">
-        <v>67.02998013918997</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="L16" t="n">
-        <v>178.1482641530679</v>
+        <v>32.15181624817887</v>
       </c>
       <c r="M16" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="N16" t="n">
-        <v>16.52015736928134</v>
+        <v>16.52015736928133</v>
       </c>
       <c r="O16" t="n">
-        <v>37.47888399777679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="P16" t="n">
-        <v>98.83245763801597</v>
+        <v>82.33797659472894</v>
       </c>
       <c r="Q16" t="n">
-        <v>178.1482641530679</v>
+        <v>127.2169859636892</v>
       </c>
       <c r="R16" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="S16" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="T16" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="U16" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="V16" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="W16" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="X16" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="Y16" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
     </row>
     <row r="17">
@@ -28561,40 +28561,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="C17" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="D17" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="E17" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="F17" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="G17" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="H17" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="I17" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="J17" t="n">
-        <v>76.78161896459405</v>
+        <v>76.78161896459403</v>
       </c>
       <c r="K17" t="n">
-        <v>195.2251254655481</v>
+        <v>6.727192146300943</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>106.8192473728358</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -28603,34 +28603,34 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>122.8888809327398</v>
+        <v>170.7274701845037</v>
       </c>
       <c r="Q17" t="n">
         <v>89.71173703742195</v>
       </c>
       <c r="R17" t="n">
-        <v>194.8815453823668</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="S17" t="n">
-        <v>227.5169945584482</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="T17" t="n">
-        <v>222.4658813998192</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="U17" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="V17" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="W17" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="X17" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="Y17" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
     </row>
     <row r="18">
@@ -28646,7 +28646,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
         <v>171.8275718397997</v>
@@ -28655,16 +28655,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>107.3634103439873</v>
       </c>
       <c r="J18" t="n">
-        <v>52.47517038390259</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28685,31 +28685,31 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.869455874161034</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>134.7198007890777</v>
       </c>
       <c r="S18" t="n">
-        <v>3.092858000757133</v>
+        <v>3.092858000757104</v>
       </c>
       <c r="T18" t="n">
-        <v>26.47299028624309</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U18" t="n">
-        <v>230.3714049058744</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V18" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
-        <v>78.20665025776441</v>
+        <v>78.20665025776438</v>
       </c>
       <c r="X18" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.3842861340256</v>
+        <v>202.6821284656501</v>
       </c>
     </row>
     <row r="19">
@@ -28743,7 +28743,7 @@
         <v>164.852968067965</v>
       </c>
       <c r="J19" t="n">
-        <v>120.239607582909</v>
+        <v>120.2396075829089</v>
       </c>
       <c r="K19" t="n">
         <v>67.02998013918997</v>
@@ -28752,16 +28752,16 @@
         <v>32.15181624817887</v>
       </c>
       <c r="M19" t="n">
-        <v>25.21686539889344</v>
+        <v>25.21686539889343</v>
       </c>
       <c r="N19" t="n">
-        <v>16.52015736928134</v>
+        <v>16.52015736928133</v>
       </c>
       <c r="O19" t="n">
-        <v>37.47888399777679</v>
+        <v>37.47888399777678</v>
       </c>
       <c r="P19" t="n">
-        <v>58.47859890024887</v>
+        <v>58.47859890024886</v>
       </c>
       <c r="Q19" t="n">
         <v>127.2169859636892</v>
@@ -28798,40 +28798,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="C20" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="D20" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="E20" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="F20" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="G20" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="H20" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="I20" t="n">
-        <v>297.4476709269844</v>
+        <v>241.009769215476</v>
       </c>
       <c r="J20" t="n">
-        <v>76.78161896459405</v>
+        <v>76.78161896459403</v>
       </c>
       <c r="K20" t="n">
-        <v>6.727192146300958</v>
+        <v>6.727192146300943</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>106.8192473728358</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -28840,34 +28840,34 @@
         <v>153.9316356498858</v>
       </c>
       <c r="P20" t="n">
-        <v>82.47338907493599</v>
+        <v>15.09197235108874</v>
       </c>
       <c r="Q20" t="n">
-        <v>89.71173703742195</v>
+        <v>278.2096703566692</v>
       </c>
       <c r="R20" t="n">
-        <v>194.8815453823668</v>
+        <v>284.3193073056458</v>
       </c>
       <c r="S20" t="n">
         <v>227.5169945584482</v>
       </c>
       <c r="T20" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="U20" t="n">
-        <v>297.4476709269844</v>
+        <v>250.1505414926498</v>
       </c>
       <c r="V20" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="W20" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="X20" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="Y20" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
     </row>
     <row r="21">
@@ -28877,31 +28877,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
         <v>148.7446044746268</v>
       </c>
       <c r="H21" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>107.3634103439873</v>
       </c>
       <c r="J21" t="n">
-        <v>52.47517038390259</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28922,7 +28922,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.869455874161034</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>134.7198007890777</v>
@@ -28931,22 +28931,22 @@
         <v>191.5907913200043</v>
       </c>
       <c r="T21" t="n">
-        <v>166.6923258935757</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U21" t="n">
-        <v>237.2280694968886</v>
+        <v>67.78130735388621</v>
       </c>
       <c r="V21" t="n">
-        <v>52.15098759615506</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>217.3129144394706</v>
+        <v>28.81498112022339</v>
       </c>
       <c r="Y21" t="n">
-        <v>223.3842861340256</v>
+        <v>34.88635281477841</v>
       </c>
     </row>
     <row r="22">
@@ -28980,7 +28980,7 @@
         <v>164.852968067965</v>
       </c>
       <c r="J22" t="n">
-        <v>120.239607582909</v>
+        <v>120.2396075829089</v>
       </c>
       <c r="K22" t="n">
         <v>67.02998013918997</v>
@@ -28989,16 +28989,16 @@
         <v>32.15181624817887</v>
       </c>
       <c r="M22" t="n">
-        <v>25.21686539889344</v>
+        <v>25.21686539889343</v>
       </c>
       <c r="N22" t="n">
-        <v>16.52015736928134</v>
+        <v>16.52015736928133</v>
       </c>
       <c r="O22" t="n">
-        <v>37.47888399777679</v>
+        <v>37.47888399777678</v>
       </c>
       <c r="P22" t="n">
-        <v>58.47859890024887</v>
+        <v>58.47859890024886</v>
       </c>
       <c r="Q22" t="n">
         <v>127.2169859636892</v>
@@ -29035,34 +29035,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="C23" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="D23" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="E23" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="F23" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="G23" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="H23" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="I23" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="J23" t="n">
-        <v>265.2795522838413</v>
+        <v>76.78161896459403</v>
       </c>
       <c r="K23" t="n">
-        <v>6.727192146300958</v>
+        <v>6.727192146300943</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -29071,40 +29071,40 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>112.4091523741034</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>15.09197235108875</v>
+        <v>203.5899056703358</v>
       </c>
       <c r="Q23" t="n">
-        <v>89.71173703742195</v>
+        <v>131.8310910787545</v>
       </c>
       <c r="R23" t="n">
-        <v>274.4550020285488</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="S23" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="T23" t="n">
         <v>222.4658813998192</v>
       </c>
       <c r="U23" t="n">
-        <v>250.1505414926498</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="V23" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="W23" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="X23" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="Y23" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
     </row>
     <row r="24">
@@ -29117,28 +29117,28 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>25.38988958564985</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I24" t="n">
         <v>107.3634103439873</v>
       </c>
       <c r="J24" t="n">
-        <v>52.47517038390259</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29159,7 +29159,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.869455874161034</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>134.7198007890777</v>
@@ -29171,7 +29171,7 @@
         <v>214.9709236054903</v>
       </c>
       <c r="U24" t="n">
-        <v>156.2015037755682</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V24" t="n">
         <v>240.6489209154022</v>
@@ -29180,10 +29180,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>28.81498112022339</v>
+        <v>28.81498112022351</v>
       </c>
       <c r="Y24" t="n">
-        <v>223.3842861340256</v>
+        <v>34.88635281477852</v>
       </c>
     </row>
     <row r="25">
@@ -29217,7 +29217,7 @@
         <v>164.852968067965</v>
       </c>
       <c r="J25" t="n">
-        <v>120.239607582909</v>
+        <v>120.2396075829089</v>
       </c>
       <c r="K25" t="n">
         <v>67.02998013918997</v>
@@ -29226,16 +29226,16 @@
         <v>32.15181624817887</v>
       </c>
       <c r="M25" t="n">
-        <v>25.21686539889344</v>
+        <v>25.21686539889343</v>
       </c>
       <c r="N25" t="n">
-        <v>16.52015736928134</v>
+        <v>16.52015736928133</v>
       </c>
       <c r="O25" t="n">
-        <v>37.47888399777679</v>
+        <v>37.47888399777678</v>
       </c>
       <c r="P25" t="n">
-        <v>58.47859890024887</v>
+        <v>58.47859890024886</v>
       </c>
       <c r="Q25" t="n">
         <v>127.2169859636892</v>
@@ -29308,7 +29308,7 @@
         <v>213.484750524001</v>
       </c>
       <c r="N26" t="n">
-        <v>213.484750524</v>
+        <v>213.484750524001</v>
       </c>
       <c r="O26" t="n">
         <v>213.484750524001</v>
@@ -29351,13 +29351,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>99.16483322993281</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>187.5181515243659</v>
+        <v>10.95816131640331</v>
       </c>
       <c r="D27" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>171.8275718397997</v>
@@ -29369,13 +29369,13 @@
         <v>148.7446044746268</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I27" t="n">
-        <v>107.3634103439873</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>52.47517038390259</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29396,10 +29396,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.869455874161034</v>
+        <v>6.869455874161023</v>
       </c>
       <c r="R27" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>191.5907913200043</v>
@@ -29411,10 +29411,10 @@
         <v>213.484750524001</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>213.484750524001</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>213.484750524001</v>
       </c>
       <c r="X27" t="n">
         <v>213.484750524001</v>
@@ -29430,7 +29430,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>177.6169206649681</v>
+        <v>186.5222313308914</v>
       </c>
       <c r="C28" t="n">
         <v>166.4571809719723</v>
@@ -29448,13 +29448,13 @@
         <v>168.7007749271525</v>
       </c>
       <c r="H28" t="n">
-        <v>165.8243976546666</v>
+        <v>213.484750524001</v>
       </c>
       <c r="I28" t="n">
         <v>164.852968067965</v>
       </c>
       <c r="J28" t="n">
-        <v>213.484750524001</v>
+        <v>120.2396075829089</v>
       </c>
       <c r="K28" t="n">
         <v>67.02998013918997</v>
@@ -29463,16 +29463,16 @@
         <v>32.15181624817887</v>
       </c>
       <c r="M28" t="n">
-        <v>25.21686539889344</v>
+        <v>25.21686539889343</v>
       </c>
       <c r="N28" t="n">
-        <v>16.52015736928134</v>
+        <v>16.52015736928133</v>
       </c>
       <c r="O28" t="n">
-        <v>176.8052711181664</v>
+        <v>213.484750524001</v>
       </c>
       <c r="P28" t="n">
-        <v>58.47859890024887</v>
+        <v>58.47859890024886</v>
       </c>
       <c r="Q28" t="n">
         <v>127.2169859636892</v>
@@ -29597,7 +29597,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
         <v>158.8234391199283</v>
@@ -29606,13 +29606,13 @@
         <v>148.7446044746268</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I30" t="n">
         <v>107.3634103439873</v>
       </c>
       <c r="J30" t="n">
-        <v>52.47517038390259</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29633,28 +29633,28 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.869455874161034</v>
+        <v>6.869455874161023</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S30" t="n">
         <v>191.5907913200043</v>
       </c>
       <c r="T30" t="n">
-        <v>213.484750524001</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>213.484750524001</v>
       </c>
       <c r="V30" t="n">
-        <v>213.484750524001</v>
+        <v>25.90447902806139</v>
       </c>
       <c r="W30" t="n">
         <v>213.484750524001</v>
       </c>
       <c r="X30" t="n">
-        <v>192.227455334809</v>
+        <v>213.484750524001</v>
       </c>
       <c r="Y30" t="n">
         <v>213.484750524001</v>
@@ -29667,19 +29667,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>208.6419103232023</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C31" t="n">
         <v>166.4571809719723</v>
       </c>
       <c r="D31" t="n">
-        <v>213.484750524001</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E31" t="n">
         <v>141.676141212225</v>
       </c>
       <c r="F31" t="n">
-        <v>213.484750524001</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
         <v>168.7007749271525</v>
@@ -29688,10 +29688,10 @@
         <v>165.8243976546666</v>
       </c>
       <c r="I31" t="n">
-        <v>213.484750524001</v>
+        <v>164.852968067965</v>
       </c>
       <c r="J31" t="n">
-        <v>120.239607582909</v>
+        <v>120.2396075829089</v>
       </c>
       <c r="K31" t="n">
         <v>67.02998013918997</v>
@@ -29700,22 +29700,22 @@
         <v>32.15181624817887</v>
       </c>
       <c r="M31" t="n">
-        <v>25.21686539889344</v>
+        <v>25.21686539889343</v>
       </c>
       <c r="N31" t="n">
-        <v>16.52015736928134</v>
+        <v>16.52015736928133</v>
       </c>
       <c r="O31" t="n">
-        <v>37.47888399777679</v>
+        <v>37.47888399777678</v>
       </c>
       <c r="P31" t="n">
-        <v>58.47859890024887</v>
+        <v>213.484750524001</v>
       </c>
       <c r="Q31" t="n">
-        <v>127.2169859636892</v>
+        <v>204.782364401419</v>
       </c>
       <c r="R31" t="n">
-        <v>213.484750524001</v>
+        <v>203.4299611556341</v>
       </c>
       <c r="S31" t="n">
         <v>213.484750524001</v>
@@ -29770,7 +29770,7 @@
         <v>214.3124603908652</v>
       </c>
       <c r="J32" t="n">
-        <v>214.3124603908652</v>
+        <v>194.1953356407503</v>
       </c>
       <c r="K32" t="n">
         <v>214.3124603908652</v>
@@ -29782,7 +29782,7 @@
         <v>214.3124603908652</v>
       </c>
       <c r="N32" t="n">
-        <v>213.6262506492484</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="O32" t="n">
         <v>214.3124603908652</v>
@@ -29794,7 +29794,7 @@
         <v>214.3124603908652</v>
       </c>
       <c r="R32" t="n">
-        <v>194.8815453823668</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="S32" t="n">
         <v>214.3124603908652</v>
@@ -29834,19 +29834,19 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>148.7446044746268</v>
       </c>
       <c r="H33" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>107.3634103439873</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>52.47517038390257</v>
@@ -29873,22 +29873,22 @@
         <v>6.869455874161009</v>
       </c>
       <c r="R33" t="n">
-        <v>134.7198007890776</v>
+        <v>63.21280067587253</v>
       </c>
       <c r="S33" t="n">
         <v>191.5907913200043</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="U33" t="n">
-        <v>7.680435169901102</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="V33" t="n">
         <v>214.3124603908652</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="X33" t="n">
         <v>214.3124603908652</v>
@@ -29907,16 +29907,16 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C34" t="n">
-        <v>214.3124603908652</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D34" t="n">
-        <v>214.3124603908652</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E34" t="n">
         <v>141.676141212225</v>
       </c>
       <c r="F34" t="n">
-        <v>214.3124603908652</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
         <v>168.7007749271525</v>
@@ -29928,7 +29928,7 @@
         <v>164.852968067965</v>
       </c>
       <c r="J34" t="n">
-        <v>120.2396075829089</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="K34" t="n">
         <v>67.02998013918996</v>
@@ -29940,13 +29940,13 @@
         <v>25.21686539889342</v>
       </c>
       <c r="N34" t="n">
-        <v>50.80940959007408</v>
+        <v>16.52015736928131</v>
       </c>
       <c r="O34" t="n">
         <v>37.47888399777676</v>
       </c>
       <c r="P34" t="n">
-        <v>58.47859890024885</v>
+        <v>191.0656660445513</v>
       </c>
       <c r="Q34" t="n">
         <v>127.2169859636892</v>
@@ -29983,43 +29983,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="C35" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="D35" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="E35" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="F35" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="G35" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="H35" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="I35" t="n">
-        <v>272.0591682562688</v>
+        <v>271.5114110709603</v>
       </c>
       <c r="J35" t="n">
-        <v>213.9102923764268</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="K35" t="n">
-        <v>267.1880015163295</v>
+        <v>267.1880015163296</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>178.7821234236171</v>
+        <v>178.7821234236172</v>
       </c>
       <c r="N35" t="n">
-        <v>184.3720284248847</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -30031,28 +30031,28 @@
         <v>89.71173703742193</v>
       </c>
       <c r="R35" t="n">
-        <v>194.8815453823668</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="S35" t="n">
         <v>227.5169945584482</v>
       </c>
       <c r="T35" t="n">
-        <v>222.4658813998192</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="U35" t="n">
         <v>250.1505414926498</v>
       </c>
       <c r="V35" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="W35" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="Y35" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
     </row>
     <row r="36">
@@ -30068,13 +30068,13 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>115.5601659149944</v>
       </c>
       <c r="G36" t="n">
         <v>148.7446044746268</v>
@@ -30086,7 +30086,7 @@
         <v>107.3634103439873</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>52.47517038390257</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30110,28 +30110,28 @@
         <v>6.869455874161009</v>
       </c>
       <c r="R36" t="n">
-        <v>134.7198007890776</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>191.5907913200043</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U36" t="n">
         <v>237.2280694968886</v>
       </c>
       <c r="V36" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
-        <v>117.3348518570253</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="37">
@@ -30171,7 +30171,7 @@
         <v>67.02998013918996</v>
       </c>
       <c r="L37" t="n">
-        <v>32.15181624817885</v>
+        <v>67.70831818202589</v>
       </c>
       <c r="M37" t="n">
         <v>25.21686539889342</v>
@@ -30195,16 +30195,16 @@
         <v>235.4380443661805</v>
       </c>
       <c r="T37" t="n">
-        <v>259.3180603841699</v>
+        <v>223.761558450323</v>
       </c>
       <c r="U37" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="V37" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W37" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="X37" t="n">
         <v>221.9194554082425</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="C38" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="D38" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="E38" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="F38" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="G38" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="H38" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="I38" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="J38" t="n">
         <v>76.78161896459402</v>
@@ -30253,43 +30253,43 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>178.7821234236171</v>
+        <v>126.1827001085077</v>
       </c>
       <c r="N38" t="n">
-        <v>93.0535972262693</v>
+        <v>184.3720284248848</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="Q38" t="n">
-        <v>272.0591682562688</v>
+        <v>89.71173703742193</v>
       </c>
       <c r="R38" t="n">
-        <v>194.8815453823668</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="S38" t="n">
-        <v>227.5169945584482</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="T38" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="U38" t="n">
-        <v>250.1505414926498</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="V38" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="W38" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="Y38" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
     </row>
     <row r="39">
@@ -30308,10 +30308,10 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>136.2655401874946</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -30320,7 +30320,7 @@
         <v>125.7355245857741</v>
       </c>
       <c r="I39" t="n">
-        <v>107.3634103439873</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>52.47517038390257</v>
@@ -30353,19 +30353,19 @@
         <v>191.5907913200043</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U39" t="n">
         <v>237.2280694968886</v>
       </c>
       <c r="V39" t="n">
-        <v>13.55600628965561</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>223.3842861340256</v>
@@ -30405,7 +30405,7 @@
         <v>120.2396075829089</v>
       </c>
       <c r="K40" t="n">
-        <v>67.02998013918996</v>
+        <v>102.586482073037</v>
       </c>
       <c r="L40" t="n">
         <v>32.15181624817885</v>
@@ -30435,16 +30435,16 @@
         <v>223.761558450323</v>
       </c>
       <c r="U40" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="V40" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W40" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="X40" t="n">
-        <v>257.4759573420895</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y40" t="n">
         <v>217.1412728141684</v>
@@ -30487,22 +30487,22 @@
         <v>241.009769215476</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>241.009769215476</v>
       </c>
       <c r="M41" t="n">
         <v>241.009769215476</v>
       </c>
       <c r="N41" t="n">
-        <v>241.009769215476</v>
+        <v>190.9023523070302</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>54.69629248006495</v>
+        <v>15.0919723510887</v>
       </c>
       <c r="Q41" t="n">
-        <v>241.009769215476</v>
+        <v>89.71173703742193</v>
       </c>
       <c r="R41" t="n">
         <v>241.009769215476</v>
@@ -30539,7 +30539,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
         <v>159.1723150765785</v>
@@ -30551,16 +30551,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>125.7355245857741</v>
       </c>
       <c r="I42" t="n">
-        <v>107.3634103439873</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>52.47517038390257</v>
+        <v>4.352914667696908</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30581,7 +30581,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.869455874161009</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>134.7198007890776</v>
@@ -30590,16 +30590,16 @@
         <v>191.5907913200043</v>
       </c>
       <c r="T42" t="n">
-        <v>91.02850042080158</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U42" t="n">
         <v>237.2280694968886</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>241.009769215476</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
@@ -30627,10 +30627,10 @@
         <v>141.676141212225</v>
       </c>
       <c r="F43" t="n">
-        <v>164.1447975017263</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
-        <v>241.009769215476</v>
+        <v>168.7007749271525</v>
       </c>
       <c r="H43" t="n">
         <v>165.8243976546666</v>
@@ -30660,13 +30660,13 @@
         <v>58.47859890024885</v>
       </c>
       <c r="Q43" t="n">
-        <v>127.2169859636892</v>
+        <v>230.3156203845878</v>
       </c>
       <c r="R43" t="n">
         <v>203.4299611556341</v>
       </c>
       <c r="S43" t="n">
-        <v>241.009769215476</v>
+        <v>235.4380443661805</v>
       </c>
       <c r="T43" t="n">
         <v>223.761558450323</v>
@@ -30718,37 +30718,37 @@
         <v>241.009769215476</v>
       </c>
       <c r="J44" t="n">
-        <v>76.78161896459402</v>
+        <v>241.009769215476</v>
       </c>
       <c r="K44" t="n">
-        <v>207.377591999319</v>
+        <v>241.009769215476</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>241.009769215476</v>
       </c>
       <c r="M44" t="n">
         <v>241.009769215476</v>
       </c>
       <c r="N44" t="n">
-        <v>241.009769215476</v>
+        <v>190.9023523070304</v>
       </c>
       <c r="O44" t="n">
-        <v>241.009769215476</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>241.009769215476</v>
+        <v>15.09197235108871</v>
       </c>
       <c r="Q44" t="n">
         <v>89.71173703742193</v>
       </c>
       <c r="R44" t="n">
-        <v>194.8815453823668</v>
+        <v>241.009769215476</v>
       </c>
       <c r="S44" t="n">
-        <v>227.5169945584482</v>
+        <v>241.009769215476</v>
       </c>
       <c r="T44" t="n">
-        <v>222.4658813998192</v>
+        <v>241.009769215476</v>
       </c>
       <c r="U44" t="n">
         <v>241.009769215476</v>
@@ -30773,7 +30773,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
         <v>187.5181515243659</v>
@@ -30785,19 +30785,19 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>139.167233020949</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H45" t="n">
         <v>125.7355245857741</v>
       </c>
       <c r="I45" t="n">
-        <v>107.3634103439873</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>52.47517038390258</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30821,10 +30821,10 @@
         <v>6.869455874161012</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>134.7198007890776</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T45" t="n">
         <v>214.9709236054903</v>
@@ -30833,16 +30833,16 @@
         <v>237.2280694968886</v>
       </c>
       <c r="V45" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>241.009769215476</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>64.77246436862941</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -30852,7 +30852,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>241.009769215476</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C46" t="n">
         <v>166.4571809719723</v>
@@ -30867,7 +30867,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
-        <v>208.4065607975432</v>
+        <v>168.7007749271525</v>
       </c>
       <c r="H46" t="n">
         <v>165.8243976546666</v>
@@ -30882,7 +30882,7 @@
         <v>67.02998013918996</v>
       </c>
       <c r="L46" t="n">
-        <v>32.15181624817886</v>
+        <v>135.2504506690776</v>
       </c>
       <c r="M46" t="n">
         <v>25.21686539889342</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4067191319631735</v>
+        <v>0.4067191319631736</v>
       </c>
       <c r="H11" t="n">
         <v>4.165312310217852</v>
       </c>
       <c r="I11" t="n">
-        <v>15.68003933501026</v>
+        <v>15.68003933501027</v>
       </c>
       <c r="J11" t="n">
-        <v>34.51977792645943</v>
+        <v>34.51977792645944</v>
       </c>
       <c r="K11" t="n">
-        <v>51.73619878246057</v>
+        <v>51.73619878246058</v>
       </c>
       <c r="L11" t="n">
-        <v>64.18332941727856</v>
+        <v>64.18332941727857</v>
       </c>
       <c r="M11" t="n">
-        <v>71.41632078032865</v>
+        <v>71.41632078032866</v>
       </c>
       <c r="N11" t="n">
-        <v>72.57191151401901</v>
+        <v>72.57191151401904</v>
       </c>
       <c r="O11" t="n">
-        <v>68.52759814556021</v>
+        <v>68.52759814556022</v>
       </c>
       <c r="P11" t="n">
-        <v>58.48671957521935</v>
+        <v>58.48671957521936</v>
       </c>
       <c r="Q11" t="n">
-        <v>43.92109066178818</v>
+        <v>43.92109066178819</v>
       </c>
       <c r="R11" t="n">
-        <v>25.54857067318172</v>
+        <v>25.54857067318173</v>
       </c>
       <c r="S11" t="n">
-        <v>9.268112219610826</v>
+        <v>9.268112219610828</v>
       </c>
       <c r="T11" t="n">
         <v>1.780413000168793</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03253753055705387</v>
+        <v>0.03253753055705388</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2176139204650132</v>
+        <v>0.2176139204650133</v>
       </c>
       <c r="H12" t="n">
-        <v>2.101692337122628</v>
+        <v>2.101692337122629</v>
       </c>
       <c r="I12" t="n">
-        <v>7.492409103729623</v>
+        <v>7.492409103729625</v>
       </c>
       <c r="J12" t="n">
         <v>20.55974324884584</v>
       </c>
       <c r="K12" t="n">
-        <v>35.13987592000172</v>
+        <v>35.13987592000174</v>
       </c>
       <c r="L12" t="n">
-        <v>47.24989970447579</v>
+        <v>47.24989970447581</v>
       </c>
       <c r="M12" t="n">
-        <v>55.13840432133251</v>
+        <v>55.13840432133253</v>
       </c>
       <c r="N12" t="n">
-        <v>56.59775381427553</v>
+        <v>56.59775381427554</v>
       </c>
       <c r="O12" t="n">
-        <v>51.77588747134023</v>
+        <v>51.77588747134025</v>
       </c>
       <c r="P12" t="n">
-        <v>41.5547143386217</v>
+        <v>41.55471433862171</v>
       </c>
       <c r="Q12" t="n">
-        <v>27.77822605795502</v>
+        <v>27.77822605795503</v>
       </c>
       <c r="R12" t="n">
-        <v>13.51115200922249</v>
+        <v>13.5111520092225</v>
       </c>
       <c r="S12" t="n">
-        <v>4.04208312793566</v>
+        <v>4.042083127935661</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8771368109971364</v>
+        <v>0.8771368109971366</v>
       </c>
       <c r="U12" t="n">
         <v>0.01431670529375088</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1824402007924974</v>
+        <v>0.1824402007924975</v>
       </c>
       <c r="H13" t="n">
-        <v>1.622059239773296</v>
+        <v>1.622059239773297</v>
       </c>
       <c r="I13" t="n">
-        <v>5.486474402014379</v>
+        <v>5.48647440201438</v>
       </c>
       <c r="J13" t="n">
         <v>12.89852219602957</v>
       </c>
       <c r="K13" t="n">
-        <v>21.19623423752833</v>
+        <v>21.19623423752834</v>
       </c>
       <c r="L13" t="n">
-        <v>27.12388221600457</v>
+        <v>27.12388221600458</v>
       </c>
       <c r="M13" t="n">
-        <v>28.59833074786393</v>
+        <v>28.59833074786394</v>
       </c>
       <c r="N13" t="n">
         <v>27.91832636309192</v>
       </c>
       <c r="O13" t="n">
-        <v>25.78709310837955</v>
+        <v>25.78709310837956</v>
       </c>
       <c r="P13" t="n">
         <v>22.06531301221259</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.27687899545176</v>
+        <v>15.27687899545177</v>
       </c>
       <c r="R13" t="n">
-        <v>8.203174846542653</v>
+        <v>8.203174846542657</v>
       </c>
       <c r="S13" t="n">
-        <v>3.179435135629249</v>
+        <v>3.17943513562925</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7795172215679432</v>
+        <v>0.7795172215679435</v>
       </c>
       <c r="U13" t="n">
-        <v>0.009951283679590779</v>
+        <v>0.009951283679590783</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4067191319631735</v>
+        <v>0.4067191319631736</v>
       </c>
       <c r="H14" t="n">
         <v>4.165312310217852</v>
       </c>
       <c r="I14" t="n">
-        <v>15.68003933501026</v>
+        <v>15.68003933501027</v>
       </c>
       <c r="J14" t="n">
-        <v>34.51977792645943</v>
+        <v>34.51977792645944</v>
       </c>
       <c r="K14" t="n">
-        <v>51.73619878246057</v>
+        <v>51.73619878246058</v>
       </c>
       <c r="L14" t="n">
-        <v>64.18332941727856</v>
+        <v>64.18332941727857</v>
       </c>
       <c r="M14" t="n">
-        <v>71.41632078032865</v>
+        <v>71.41632078032866</v>
       </c>
       <c r="N14" t="n">
-        <v>72.57191151401901</v>
+        <v>72.57191151401904</v>
       </c>
       <c r="O14" t="n">
-        <v>68.52759814556021</v>
+        <v>68.52759814556022</v>
       </c>
       <c r="P14" t="n">
-        <v>58.48671957521935</v>
+        <v>58.48671957521936</v>
       </c>
       <c r="Q14" t="n">
-        <v>43.92109066178818</v>
+        <v>43.92109066178819</v>
       </c>
       <c r="R14" t="n">
-        <v>25.54857067318172</v>
+        <v>25.54857067318173</v>
       </c>
       <c r="S14" t="n">
-        <v>9.268112219610826</v>
+        <v>9.268112219610828</v>
       </c>
       <c r="T14" t="n">
         <v>1.780413000168793</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03253753055705387</v>
+        <v>0.03253753055705388</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2176139204650132</v>
+        <v>0.2176139204650133</v>
       </c>
       <c r="H15" t="n">
-        <v>2.101692337122628</v>
+        <v>2.101692337122629</v>
       </c>
       <c r="I15" t="n">
-        <v>7.492409103729623</v>
+        <v>7.492409103729625</v>
       </c>
       <c r="J15" t="n">
         <v>20.55974324884584</v>
       </c>
       <c r="K15" t="n">
-        <v>35.13987592000172</v>
+        <v>35.13987592000174</v>
       </c>
       <c r="L15" t="n">
-        <v>47.24989970447579</v>
+        <v>47.24989970447581</v>
       </c>
       <c r="M15" t="n">
-        <v>55.13840432133251</v>
+        <v>55.13840432133253</v>
       </c>
       <c r="N15" t="n">
-        <v>56.59775381427553</v>
+        <v>56.59775381427554</v>
       </c>
       <c r="O15" t="n">
-        <v>51.77588747134023</v>
+        <v>51.77588747134025</v>
       </c>
       <c r="P15" t="n">
-        <v>41.5547143386217</v>
+        <v>41.55471433862171</v>
       </c>
       <c r="Q15" t="n">
-        <v>27.77822605795502</v>
+        <v>27.77822605795503</v>
       </c>
       <c r="R15" t="n">
-        <v>13.51115200922249</v>
+        <v>13.5111520092225</v>
       </c>
       <c r="S15" t="n">
-        <v>4.04208312793566</v>
+        <v>4.042083127935661</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8771368109971364</v>
+        <v>0.8771368109971366</v>
       </c>
       <c r="U15" t="n">
         <v>0.01431670529375088</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1824402007924974</v>
+        <v>0.1824402007924975</v>
       </c>
       <c r="H16" t="n">
-        <v>1.622059239773296</v>
+        <v>1.622059239773297</v>
       </c>
       <c r="I16" t="n">
-        <v>5.486474402014379</v>
+        <v>5.48647440201438</v>
       </c>
       <c r="J16" t="n">
         <v>12.89852219602957</v>
       </c>
       <c r="K16" t="n">
-        <v>21.19623423752833</v>
+        <v>21.19623423752834</v>
       </c>
       <c r="L16" t="n">
-        <v>27.12388221600457</v>
+        <v>27.12388221600458</v>
       </c>
       <c r="M16" t="n">
-        <v>28.59833074786393</v>
+        <v>28.59833074786394</v>
       </c>
       <c r="N16" t="n">
         <v>27.91832636309192</v>
       </c>
       <c r="O16" t="n">
-        <v>25.78709310837955</v>
+        <v>25.78709310837956</v>
       </c>
       <c r="P16" t="n">
         <v>22.06531301221259</v>
       </c>
       <c r="Q16" t="n">
-        <v>15.27687899545176</v>
+        <v>15.27687899545177</v>
       </c>
       <c r="R16" t="n">
-        <v>8.203174846542653</v>
+        <v>8.203174846542657</v>
       </c>
       <c r="S16" t="n">
-        <v>3.179435135629249</v>
+        <v>3.17943513562925</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7795172215679432</v>
+        <v>0.7795172215679435</v>
       </c>
       <c r="U16" t="n">
-        <v>0.009951283679590779</v>
+        <v>0.009951283679590783</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4067191319631735</v>
+        <v>0.4067191319631736</v>
       </c>
       <c r="H17" t="n">
         <v>4.165312310217852</v>
       </c>
       <c r="I17" t="n">
-        <v>15.68003933501026</v>
+        <v>15.68003933501027</v>
       </c>
       <c r="J17" t="n">
-        <v>34.51977792645943</v>
+        <v>34.51977792645944</v>
       </c>
       <c r="K17" t="n">
-        <v>51.73619878246057</v>
+        <v>51.73619878246058</v>
       </c>
       <c r="L17" t="n">
-        <v>64.18332941727856</v>
+        <v>64.18332941727857</v>
       </c>
       <c r="M17" t="n">
-        <v>71.41632078032865</v>
+        <v>71.41632078032866</v>
       </c>
       <c r="N17" t="n">
-        <v>72.57191151401901</v>
+        <v>72.57191151401904</v>
       </c>
       <c r="O17" t="n">
-        <v>68.52759814556021</v>
+        <v>68.52759814556022</v>
       </c>
       <c r="P17" t="n">
-        <v>58.48671957521935</v>
+        <v>58.48671957521936</v>
       </c>
       <c r="Q17" t="n">
-        <v>43.92109066178818</v>
+        <v>43.92109066178819</v>
       </c>
       <c r="R17" t="n">
-        <v>25.54857067318172</v>
+        <v>25.54857067318173</v>
       </c>
       <c r="S17" t="n">
-        <v>9.268112219610826</v>
+        <v>9.268112219610828</v>
       </c>
       <c r="T17" t="n">
         <v>1.780413000168793</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03253753055705387</v>
+        <v>0.03253753055705388</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2176139204650132</v>
+        <v>0.2176139204650133</v>
       </c>
       <c r="H18" t="n">
-        <v>2.101692337122628</v>
+        <v>2.101692337122629</v>
       </c>
       <c r="I18" t="n">
-        <v>7.492409103729623</v>
+        <v>7.492409103729625</v>
       </c>
       <c r="J18" t="n">
         <v>20.55974324884584</v>
       </c>
       <c r="K18" t="n">
-        <v>35.13987592000172</v>
+        <v>35.13987592000174</v>
       </c>
       <c r="L18" t="n">
-        <v>47.24989970447579</v>
+        <v>47.24989970447581</v>
       </c>
       <c r="M18" t="n">
-        <v>55.13840432133251</v>
+        <v>55.13840432133253</v>
       </c>
       <c r="N18" t="n">
-        <v>56.59775381427553</v>
+        <v>56.59775381427554</v>
       </c>
       <c r="O18" t="n">
-        <v>51.77588747134023</v>
+        <v>51.77588747134025</v>
       </c>
       <c r="P18" t="n">
-        <v>41.5547143386217</v>
+        <v>41.55471433862171</v>
       </c>
       <c r="Q18" t="n">
-        <v>27.77822605795502</v>
+        <v>27.77822605795503</v>
       </c>
       <c r="R18" t="n">
-        <v>13.51115200922249</v>
+        <v>13.5111520092225</v>
       </c>
       <c r="S18" t="n">
-        <v>4.04208312793566</v>
+        <v>4.042083127935661</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8771368109971364</v>
+        <v>0.8771368109971366</v>
       </c>
       <c r="U18" t="n">
         <v>0.01431670529375088</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1824402007924974</v>
+        <v>0.1824402007924975</v>
       </c>
       <c r="H19" t="n">
-        <v>1.622059239773296</v>
+        <v>1.622059239773297</v>
       </c>
       <c r="I19" t="n">
-        <v>5.486474402014379</v>
+        <v>5.48647440201438</v>
       </c>
       <c r="J19" t="n">
         <v>12.89852219602957</v>
       </c>
       <c r="K19" t="n">
-        <v>21.19623423752833</v>
+        <v>21.19623423752834</v>
       </c>
       <c r="L19" t="n">
-        <v>27.12388221600457</v>
+        <v>27.12388221600458</v>
       </c>
       <c r="M19" t="n">
-        <v>28.59833074786393</v>
+        <v>28.59833074786394</v>
       </c>
       <c r="N19" t="n">
         <v>27.91832636309192</v>
       </c>
       <c r="O19" t="n">
-        <v>25.78709310837955</v>
+        <v>25.78709310837956</v>
       </c>
       <c r="P19" t="n">
         <v>22.06531301221259</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.27687899545176</v>
+        <v>15.27687899545177</v>
       </c>
       <c r="R19" t="n">
-        <v>8.203174846542653</v>
+        <v>8.203174846542657</v>
       </c>
       <c r="S19" t="n">
-        <v>3.179435135629249</v>
+        <v>3.17943513562925</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7795172215679432</v>
+        <v>0.7795172215679435</v>
       </c>
       <c r="U19" t="n">
-        <v>0.009951283679590779</v>
+        <v>0.009951283679590783</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4067191319631735</v>
+        <v>0.4067191319631736</v>
       </c>
       <c r="H20" t="n">
         <v>4.165312310217852</v>
       </c>
       <c r="I20" t="n">
-        <v>15.68003933501026</v>
+        <v>15.68003933501027</v>
       </c>
       <c r="J20" t="n">
-        <v>34.51977792645943</v>
+        <v>34.51977792645944</v>
       </c>
       <c r="K20" t="n">
-        <v>51.73619878246057</v>
+        <v>51.73619878246058</v>
       </c>
       <c r="L20" t="n">
-        <v>64.18332941727856</v>
+        <v>64.18332941727857</v>
       </c>
       <c r="M20" t="n">
-        <v>71.41632078032865</v>
+        <v>71.41632078032866</v>
       </c>
       <c r="N20" t="n">
-        <v>72.57191151401901</v>
+        <v>72.57191151401904</v>
       </c>
       <c r="O20" t="n">
-        <v>68.52759814556021</v>
+        <v>68.52759814556022</v>
       </c>
       <c r="P20" t="n">
-        <v>58.48671957521935</v>
+        <v>58.48671957521936</v>
       </c>
       <c r="Q20" t="n">
-        <v>43.92109066178818</v>
+        <v>43.92109066178819</v>
       </c>
       <c r="R20" t="n">
-        <v>25.54857067318172</v>
+        <v>25.54857067318173</v>
       </c>
       <c r="S20" t="n">
-        <v>9.268112219610826</v>
+        <v>9.268112219610828</v>
       </c>
       <c r="T20" t="n">
         <v>1.780413000168793</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03253753055705387</v>
+        <v>0.03253753055705388</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2176139204650132</v>
+        <v>0.2176139204650133</v>
       </c>
       <c r="H21" t="n">
-        <v>2.101692337122628</v>
+        <v>2.101692337122629</v>
       </c>
       <c r="I21" t="n">
-        <v>7.492409103729623</v>
+        <v>7.492409103729625</v>
       </c>
       <c r="J21" t="n">
         <v>20.55974324884584</v>
       </c>
       <c r="K21" t="n">
-        <v>35.13987592000172</v>
+        <v>35.13987592000174</v>
       </c>
       <c r="L21" t="n">
-        <v>47.24989970447579</v>
+        <v>47.24989970447581</v>
       </c>
       <c r="M21" t="n">
-        <v>55.13840432133251</v>
+        <v>55.13840432133253</v>
       </c>
       <c r="N21" t="n">
-        <v>56.59775381427553</v>
+        <v>56.59775381427554</v>
       </c>
       <c r="O21" t="n">
-        <v>51.77588747134023</v>
+        <v>51.77588747134025</v>
       </c>
       <c r="P21" t="n">
-        <v>41.5547143386217</v>
+        <v>41.55471433862171</v>
       </c>
       <c r="Q21" t="n">
-        <v>27.77822605795502</v>
+        <v>27.77822605795503</v>
       </c>
       <c r="R21" t="n">
-        <v>13.51115200922249</v>
+        <v>13.5111520092225</v>
       </c>
       <c r="S21" t="n">
-        <v>4.04208312793566</v>
+        <v>4.042083127935661</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8771368109971364</v>
+        <v>0.8771368109971366</v>
       </c>
       <c r="U21" t="n">
         <v>0.01431670529375088</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1824402007924974</v>
+        <v>0.1824402007924975</v>
       </c>
       <c r="H22" t="n">
-        <v>1.622059239773296</v>
+        <v>1.622059239773297</v>
       </c>
       <c r="I22" t="n">
-        <v>5.486474402014379</v>
+        <v>5.48647440201438</v>
       </c>
       <c r="J22" t="n">
         <v>12.89852219602957</v>
       </c>
       <c r="K22" t="n">
-        <v>21.19623423752833</v>
+        <v>21.19623423752834</v>
       </c>
       <c r="L22" t="n">
-        <v>27.12388221600457</v>
+        <v>27.12388221600458</v>
       </c>
       <c r="M22" t="n">
-        <v>28.59833074786393</v>
+        <v>28.59833074786394</v>
       </c>
       <c r="N22" t="n">
         <v>27.91832636309192</v>
       </c>
       <c r="O22" t="n">
-        <v>25.78709310837955</v>
+        <v>25.78709310837956</v>
       </c>
       <c r="P22" t="n">
         <v>22.06531301221259</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.27687899545176</v>
+        <v>15.27687899545177</v>
       </c>
       <c r="R22" t="n">
-        <v>8.203174846542653</v>
+        <v>8.203174846542657</v>
       </c>
       <c r="S22" t="n">
-        <v>3.179435135629249</v>
+        <v>3.17943513562925</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7795172215679432</v>
+        <v>0.7795172215679435</v>
       </c>
       <c r="U22" t="n">
-        <v>0.009951283679590779</v>
+        <v>0.009951283679590783</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4067191319631735</v>
+        <v>0.4067191319631736</v>
       </c>
       <c r="H23" t="n">
         <v>4.165312310217852</v>
       </c>
       <c r="I23" t="n">
-        <v>15.68003933501026</v>
+        <v>15.68003933501027</v>
       </c>
       <c r="J23" t="n">
-        <v>34.51977792645943</v>
+        <v>34.51977792645944</v>
       </c>
       <c r="K23" t="n">
-        <v>51.73619878246057</v>
+        <v>51.73619878246058</v>
       </c>
       <c r="L23" t="n">
-        <v>64.18332941727856</v>
+        <v>64.18332941727857</v>
       </c>
       <c r="M23" t="n">
-        <v>71.41632078032865</v>
+        <v>71.41632078032866</v>
       </c>
       <c r="N23" t="n">
-        <v>72.57191151401901</v>
+        <v>72.57191151401904</v>
       </c>
       <c r="O23" t="n">
-        <v>68.52759814556021</v>
+        <v>68.52759814556022</v>
       </c>
       <c r="P23" t="n">
-        <v>58.48671957521935</v>
+        <v>58.48671957521936</v>
       </c>
       <c r="Q23" t="n">
-        <v>43.92109066178818</v>
+        <v>43.92109066178819</v>
       </c>
       <c r="R23" t="n">
-        <v>25.54857067318172</v>
+        <v>25.54857067318173</v>
       </c>
       <c r="S23" t="n">
-        <v>9.268112219610826</v>
+        <v>9.268112219610828</v>
       </c>
       <c r="T23" t="n">
         <v>1.780413000168793</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03253753055705387</v>
+        <v>0.03253753055705388</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2176139204650132</v>
+        <v>0.2176139204650133</v>
       </c>
       <c r="H24" t="n">
-        <v>2.101692337122628</v>
+        <v>2.101692337122629</v>
       </c>
       <c r="I24" t="n">
-        <v>7.492409103729623</v>
+        <v>7.492409103729625</v>
       </c>
       <c r="J24" t="n">
         <v>20.55974324884584</v>
       </c>
       <c r="K24" t="n">
-        <v>35.13987592000172</v>
+        <v>35.13987592000174</v>
       </c>
       <c r="L24" t="n">
-        <v>47.24989970447579</v>
+        <v>47.24989970447581</v>
       </c>
       <c r="M24" t="n">
-        <v>55.13840432133251</v>
+        <v>55.13840432133253</v>
       </c>
       <c r="N24" t="n">
-        <v>56.59775381427553</v>
+        <v>56.59775381427554</v>
       </c>
       <c r="O24" t="n">
-        <v>51.77588747134023</v>
+        <v>51.77588747134025</v>
       </c>
       <c r="P24" t="n">
-        <v>41.5547143386217</v>
+        <v>41.55471433862171</v>
       </c>
       <c r="Q24" t="n">
-        <v>27.77822605795502</v>
+        <v>27.77822605795503</v>
       </c>
       <c r="R24" t="n">
-        <v>13.51115200922249</v>
+        <v>13.5111520092225</v>
       </c>
       <c r="S24" t="n">
-        <v>4.04208312793566</v>
+        <v>4.042083127935661</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8771368109971364</v>
+        <v>0.8771368109971366</v>
       </c>
       <c r="U24" t="n">
         <v>0.01431670529375088</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1824402007924974</v>
+        <v>0.1824402007924975</v>
       </c>
       <c r="H25" t="n">
-        <v>1.622059239773296</v>
+        <v>1.622059239773297</v>
       </c>
       <c r="I25" t="n">
-        <v>5.486474402014379</v>
+        <v>5.48647440201438</v>
       </c>
       <c r="J25" t="n">
         <v>12.89852219602957</v>
       </c>
       <c r="K25" t="n">
-        <v>21.19623423752833</v>
+        <v>21.19623423752834</v>
       </c>
       <c r="L25" t="n">
-        <v>27.12388221600457</v>
+        <v>27.12388221600458</v>
       </c>
       <c r="M25" t="n">
-        <v>28.59833074786393</v>
+        <v>28.59833074786394</v>
       </c>
       <c r="N25" t="n">
         <v>27.91832636309192</v>
       </c>
       <c r="O25" t="n">
-        <v>25.78709310837955</v>
+        <v>25.78709310837956</v>
       </c>
       <c r="P25" t="n">
         <v>22.06531301221259</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.27687899545176</v>
+        <v>15.27687899545177</v>
       </c>
       <c r="R25" t="n">
-        <v>8.203174846542653</v>
+        <v>8.203174846542657</v>
       </c>
       <c r="S25" t="n">
-        <v>3.179435135629249</v>
+        <v>3.17943513562925</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7795172215679432</v>
+        <v>0.7795172215679435</v>
       </c>
       <c r="U25" t="n">
-        <v>0.009951283679590779</v>
+        <v>0.009951283679590783</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4067191319631735</v>
+        <v>0.4067191319631736</v>
       </c>
       <c r="H26" t="n">
         <v>4.165312310217852</v>
       </c>
       <c r="I26" t="n">
-        <v>15.68003933501026</v>
+        <v>15.68003933501027</v>
       </c>
       <c r="J26" t="n">
-        <v>34.51977792645943</v>
+        <v>34.51977792645944</v>
       </c>
       <c r="K26" t="n">
-        <v>51.73619878246057</v>
+        <v>51.73619878246058</v>
       </c>
       <c r="L26" t="n">
-        <v>64.18332941727856</v>
+        <v>64.18332941727857</v>
       </c>
       <c r="M26" t="n">
-        <v>71.41632078032865</v>
+        <v>71.41632078032866</v>
       </c>
       <c r="N26" t="n">
-        <v>72.57191151401901</v>
+        <v>72.57191151401904</v>
       </c>
       <c r="O26" t="n">
-        <v>68.52759814556021</v>
+        <v>68.52759814556022</v>
       </c>
       <c r="P26" t="n">
-        <v>58.48671957521935</v>
+        <v>58.48671957521936</v>
       </c>
       <c r="Q26" t="n">
-        <v>43.92109066178818</v>
+        <v>43.92109066178819</v>
       </c>
       <c r="R26" t="n">
-        <v>25.54857067318172</v>
+        <v>25.54857067318173</v>
       </c>
       <c r="S26" t="n">
-        <v>9.268112219610826</v>
+        <v>9.268112219610828</v>
       </c>
       <c r="T26" t="n">
         <v>1.780413000168793</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03253753055705387</v>
+        <v>0.03253753055705388</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2176139204650132</v>
+        <v>0.2176139204650133</v>
       </c>
       <c r="H27" t="n">
-        <v>2.101692337122628</v>
+        <v>2.101692337122629</v>
       </c>
       <c r="I27" t="n">
-        <v>7.492409103729623</v>
+        <v>7.492409103729625</v>
       </c>
       <c r="J27" t="n">
         <v>20.55974324884584</v>
       </c>
       <c r="K27" t="n">
-        <v>35.13987592000172</v>
+        <v>35.13987592000174</v>
       </c>
       <c r="L27" t="n">
-        <v>47.24989970447579</v>
+        <v>47.24989970447581</v>
       </c>
       <c r="M27" t="n">
-        <v>55.13840432133251</v>
+        <v>55.13840432133253</v>
       </c>
       <c r="N27" t="n">
-        <v>56.59775381427553</v>
+        <v>56.59775381427554</v>
       </c>
       <c r="O27" t="n">
-        <v>51.77588747134023</v>
+        <v>51.77588747134025</v>
       </c>
       <c r="P27" t="n">
-        <v>41.5547143386217</v>
+        <v>41.55471433862171</v>
       </c>
       <c r="Q27" t="n">
-        <v>27.77822605795502</v>
+        <v>27.77822605795503</v>
       </c>
       <c r="R27" t="n">
-        <v>13.51115200922249</v>
+        <v>13.5111520092225</v>
       </c>
       <c r="S27" t="n">
-        <v>4.04208312793566</v>
+        <v>4.042083127935661</v>
       </c>
       <c r="T27" t="n">
-        <v>0.8771368109971364</v>
+        <v>0.8771368109971366</v>
       </c>
       <c r="U27" t="n">
         <v>0.01431670529375088</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1824402007924974</v>
+        <v>0.1824402007924975</v>
       </c>
       <c r="H28" t="n">
-        <v>1.622059239773296</v>
+        <v>1.622059239773297</v>
       </c>
       <c r="I28" t="n">
-        <v>5.486474402014379</v>
+        <v>5.48647440201438</v>
       </c>
       <c r="J28" t="n">
         <v>12.89852219602957</v>
       </c>
       <c r="K28" t="n">
-        <v>21.19623423752833</v>
+        <v>21.19623423752834</v>
       </c>
       <c r="L28" t="n">
-        <v>27.12388221600457</v>
+        <v>27.12388221600458</v>
       </c>
       <c r="M28" t="n">
-        <v>28.59833074786393</v>
+        <v>28.59833074786394</v>
       </c>
       <c r="N28" t="n">
         <v>27.91832636309192</v>
       </c>
       <c r="O28" t="n">
-        <v>25.78709310837955</v>
+        <v>25.78709310837956</v>
       </c>
       <c r="P28" t="n">
         <v>22.06531301221259</v>
       </c>
       <c r="Q28" t="n">
-        <v>15.27687899545176</v>
+        <v>15.27687899545177</v>
       </c>
       <c r="R28" t="n">
-        <v>8.203174846542653</v>
+        <v>8.203174846542657</v>
       </c>
       <c r="S28" t="n">
-        <v>3.179435135629249</v>
+        <v>3.17943513562925</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7795172215679432</v>
+        <v>0.7795172215679435</v>
       </c>
       <c r="U28" t="n">
-        <v>0.009951283679590779</v>
+        <v>0.009951283679590783</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4067191319631735</v>
+        <v>0.4067191319631736</v>
       </c>
       <c r="H29" t="n">
         <v>4.165312310217852</v>
       </c>
       <c r="I29" t="n">
-        <v>15.68003933501026</v>
+        <v>15.68003933501027</v>
       </c>
       <c r="J29" t="n">
-        <v>34.51977792645943</v>
+        <v>34.51977792645944</v>
       </c>
       <c r="K29" t="n">
-        <v>51.73619878246057</v>
+        <v>51.73619878246058</v>
       </c>
       <c r="L29" t="n">
-        <v>64.18332941727856</v>
+        <v>64.18332941727857</v>
       </c>
       <c r="M29" t="n">
-        <v>71.41632078032865</v>
+        <v>71.41632078032866</v>
       </c>
       <c r="N29" t="n">
-        <v>72.57191151401901</v>
+        <v>72.57191151401904</v>
       </c>
       <c r="O29" t="n">
-        <v>68.52759814556021</v>
+        <v>68.52759814556022</v>
       </c>
       <c r="P29" t="n">
-        <v>58.48671957521935</v>
+        <v>58.48671957521936</v>
       </c>
       <c r="Q29" t="n">
-        <v>43.92109066178818</v>
+        <v>43.92109066178819</v>
       </c>
       <c r="R29" t="n">
-        <v>25.54857067318172</v>
+        <v>25.54857067318173</v>
       </c>
       <c r="S29" t="n">
-        <v>9.268112219610826</v>
+        <v>9.268112219610828</v>
       </c>
       <c r="T29" t="n">
         <v>1.780413000168793</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03253753055705387</v>
+        <v>0.03253753055705388</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2176139204650132</v>
+        <v>0.2176139204650133</v>
       </c>
       <c r="H30" t="n">
-        <v>2.101692337122628</v>
+        <v>2.101692337122629</v>
       </c>
       <c r="I30" t="n">
-        <v>7.492409103729623</v>
+        <v>7.492409103729625</v>
       </c>
       <c r="J30" t="n">
         <v>20.55974324884584</v>
       </c>
       <c r="K30" t="n">
-        <v>35.13987592000172</v>
+        <v>35.13987592000174</v>
       </c>
       <c r="L30" t="n">
-        <v>47.24989970447579</v>
+        <v>47.24989970447581</v>
       </c>
       <c r="M30" t="n">
-        <v>55.13840432133251</v>
+        <v>55.13840432133253</v>
       </c>
       <c r="N30" t="n">
-        <v>56.59775381427553</v>
+        <v>56.59775381427554</v>
       </c>
       <c r="O30" t="n">
-        <v>51.77588747134023</v>
+        <v>51.77588747134025</v>
       </c>
       <c r="P30" t="n">
-        <v>41.5547143386217</v>
+        <v>41.55471433862171</v>
       </c>
       <c r="Q30" t="n">
-        <v>27.77822605795502</v>
+        <v>27.77822605795503</v>
       </c>
       <c r="R30" t="n">
-        <v>13.51115200922249</v>
+        <v>13.5111520092225</v>
       </c>
       <c r="S30" t="n">
-        <v>4.04208312793566</v>
+        <v>4.042083127935661</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8771368109971364</v>
+        <v>0.8771368109971366</v>
       </c>
       <c r="U30" t="n">
         <v>0.01431670529375088</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1824402007924974</v>
+        <v>0.1824402007924975</v>
       </c>
       <c r="H31" t="n">
-        <v>1.622059239773296</v>
+        <v>1.622059239773297</v>
       </c>
       <c r="I31" t="n">
-        <v>5.486474402014379</v>
+        <v>5.48647440201438</v>
       </c>
       <c r="J31" t="n">
         <v>12.89852219602957</v>
       </c>
       <c r="K31" t="n">
-        <v>21.19623423752833</v>
+        <v>21.19623423752834</v>
       </c>
       <c r="L31" t="n">
-        <v>27.12388221600457</v>
+        <v>27.12388221600458</v>
       </c>
       <c r="M31" t="n">
-        <v>28.59833074786393</v>
+        <v>28.59833074786394</v>
       </c>
       <c r="N31" t="n">
         <v>27.91832636309192</v>
       </c>
       <c r="O31" t="n">
-        <v>25.78709310837955</v>
+        <v>25.78709310837956</v>
       </c>
       <c r="P31" t="n">
         <v>22.06531301221259</v>
       </c>
       <c r="Q31" t="n">
-        <v>15.27687899545176</v>
+        <v>15.27687899545177</v>
       </c>
       <c r="R31" t="n">
-        <v>8.203174846542653</v>
+        <v>8.203174846542657</v>
       </c>
       <c r="S31" t="n">
-        <v>3.179435135629249</v>
+        <v>3.17943513562925</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7795172215679432</v>
+        <v>0.7795172215679435</v>
       </c>
       <c r="U31" t="n">
-        <v>0.009951283679590779</v>
+        <v>0.009951283679590783</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -35146,13 +35146,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>0.129915453191039</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.129915453191039</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -35252,19 +35252,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
         <v>3.199249640013477</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>3.069987028295762</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
         <v>3.199249640013477</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>3.199249640013477</v>
@@ -35410,10 +35410,10 @@
         <v>101.3666451884738</v>
       </c>
       <c r="K11" t="n">
-        <v>23.19778368218507</v>
+        <v>171.4210720067668</v>
       </c>
       <c r="L11" t="n">
-        <v>47.19277018258599</v>
+        <v>47.192770182586</v>
       </c>
       <c r="M11" t="n">
         <v>188.4979333192472</v>
@@ -35422,10 +35422,10 @@
         <v>188.4979333192472</v>
       </c>
       <c r="O11" t="n">
-        <v>34.56629766936138</v>
+        <v>34.56629766936139</v>
       </c>
       <c r="P11" t="n">
-        <v>163.0562918019791</v>
+        <v>14.83300347739739</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>38.34679395543473</v>
+        <v>38.34679395543474</v>
       </c>
       <c r="L12" t="n">
         <v>118.5181001296708</v>
@@ -35504,7 +35504,7 @@
         <v>133.0312521404388</v>
       </c>
       <c r="P12" t="n">
-        <v>84.46981137181808</v>
+        <v>84.4698113718181</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35544,22 +35544,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>11.69108318109554</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>32.96561390235718</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>36.47212294084289</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>39.22138193462123</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>9.447489225915417</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>12.3238664984013</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -35577,16 +35577,16 @@
         <v>152.9313987541744</v>
       </c>
       <c r="N13" t="n">
-        <v>24.09065438673805</v>
+        <v>161.6281067837864</v>
       </c>
       <c r="O13" t="n">
-        <v>140.6693801552911</v>
+        <v>76.5150983780368</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>119.6696652528189</v>
       </c>
       <c r="Q13" t="n">
-        <v>50.93127818937867</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>101.3666451884739</v>
+        <v>101.3666451884738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>12.68449317681728</v>
       </c>
       <c r="L14" t="n">
-        <v>47.19277018258599</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="M14" t="n">
-        <v>188.4979333192472</v>
+        <v>81.67868594641142</v>
       </c>
       <c r="N14" t="n">
-        <v>188.4979333192472</v>
+        <v>76.08878094514384</v>
       </c>
       <c r="O14" t="n">
-        <v>188.4979333192472</v>
+        <v>34.56629766936139</v>
       </c>
       <c r="P14" t="n">
-        <v>32.32243983427843</v>
+        <v>163.0562918019791</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>88.43652711564584</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>38.34679395543473</v>
+        <v>38.34679395543474</v>
       </c>
       <c r="L15" t="n">
         <v>118.5181001296708</v>
@@ -35741,7 +35741,7 @@
         <v>133.0312521404388</v>
       </c>
       <c r="P15" t="n">
-        <v>84.46981137181808</v>
+        <v>84.4698113718181</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35778,52 +35778,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.53134348809985</v>
+        <v>0.5313434880997079</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>32.96561390235709</v>
       </c>
       <c r="E16" t="n">
-        <v>36.47212294084295</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>39.22138193462115</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>9.447489225915332</v>
       </c>
       <c r="H16" t="n">
-        <v>12.32386649840136</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>13.2952960851029</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>57.90865657015899</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>111.1182840138778</v>
       </c>
       <c r="L16" t="n">
-        <v>145.9964479048891</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>152.9313987541745</v>
+        <v>152.9313987541744</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>140.669380155291</v>
       </c>
       <c r="P16" t="n">
-        <v>40.35385873776709</v>
+        <v>23.85937769448008</v>
       </c>
       <c r="Q16" t="n">
-        <v>50.93127818937872</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,43 +35878,43 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>56.43790171150837</v>
+        <v>56.43790171150843</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>47.19277018258599</v>
+        <v>47.192770182586</v>
       </c>
       <c r="M17" t="n">
-        <v>188.4979333192472</v>
+        <v>81.67868594641142</v>
       </c>
       <c r="N17" t="n">
-        <v>76.08878094514381</v>
+        <v>76.08878094514384</v>
       </c>
       <c r="O17" t="n">
-        <v>34.56629766936138</v>
+        <v>34.56629766936139</v>
       </c>
       <c r="P17" t="n">
-        <v>107.7969085816511</v>
+        <v>155.6354978334149</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>102.5661255446176</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>69.9306763685363</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>74.98178952716522</v>
       </c>
       <c r="U17" t="n">
-        <v>47.29712943433466</v>
+        <v>47.29712943433472</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>38.34679395543473</v>
+        <v>38.34679395543474</v>
       </c>
       <c r="L18" t="n">
         <v>118.5181001296708</v>
@@ -35978,7 +35978,7 @@
         <v>133.0312521404388</v>
       </c>
       <c r="P18" t="n">
-        <v>84.46981137181808</v>
+        <v>84.4698113718181</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>56.43790171150837</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -36124,34 +36124,34 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>47.19277018258599</v>
+        <v>47.192770182586</v>
       </c>
       <c r="M20" t="n">
-        <v>188.4979333192472</v>
+        <v>81.67868594641142</v>
       </c>
       <c r="N20" t="n">
-        <v>76.08878094514381</v>
+        <v>76.08878094514384</v>
       </c>
       <c r="O20" t="n">
         <v>188.4979333192472</v>
       </c>
       <c r="P20" t="n">
-        <v>67.38141672384725</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>89.43776192327897</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>74.98178952716516</v>
+        <v>74.98178952716522</v>
       </c>
       <c r="U20" t="n">
-        <v>47.29712943433466</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>38.34679395543473</v>
+        <v>38.34679395543474</v>
       </c>
       <c r="L21" t="n">
         <v>118.5181001296708</v>
@@ -36215,7 +36215,7 @@
         <v>133.0312521404388</v>
       </c>
       <c r="P21" t="n">
-        <v>84.46981137181808</v>
+        <v>84.4698113718181</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36352,43 +36352,43 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>56.43790171150837</v>
+        <v>56.43790171150843</v>
       </c>
       <c r="J23" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>47.19277018258599</v>
+        <v>47.192770182586</v>
       </c>
       <c r="M23" t="n">
-        <v>81.67868594641141</v>
+        <v>81.67868594641142</v>
       </c>
       <c r="N23" t="n">
-        <v>188.4979333192472</v>
+        <v>76.08878094514384</v>
       </c>
       <c r="O23" t="n">
-        <v>34.56629766936138</v>
+        <v>34.56629766936139</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>42.11935404133257</v>
       </c>
       <c r="R23" t="n">
-        <v>79.57345664618202</v>
+        <v>102.5661255446176</v>
       </c>
       <c r="S23" t="n">
-        <v>69.93067636853624</v>
+        <v>69.9306763685363</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>47.29712943433472</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>38.34679395543473</v>
+        <v>38.34679395543474</v>
       </c>
       <c r="L24" t="n">
         <v>118.5181001296708</v>
@@ -36446,13 +36446,13 @@
         <v>183.5117642464701</v>
       </c>
       <c r="N24" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="O24" t="n">
         <v>133.0312521404388</v>
       </c>
       <c r="P24" t="n">
-        <v>84.46981137181808</v>
+        <v>84.4698113718181</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36595,7 +36595,7 @@
         <v>136.703131559407</v>
       </c>
       <c r="K26" t="n">
-        <v>206.7575583777001</v>
+        <v>206.7575583777</v>
       </c>
       <c r="L26" t="n">
         <v>260.677520706587</v>
@@ -36604,19 +36604,19 @@
         <v>295.1634364704124</v>
       </c>
       <c r="N26" t="n">
-        <v>289.5735314691438</v>
+        <v>289.5735314691448</v>
       </c>
       <c r="O26" t="n">
         <v>248.0510481933624</v>
       </c>
       <c r="P26" t="n">
-        <v>198.3927781729123</v>
+        <v>198.3927781729122</v>
       </c>
       <c r="Q26" t="n">
-        <v>123.7730134865791</v>
+        <v>123.773013486579</v>
       </c>
       <c r="R26" t="n">
-        <v>18.60320514163418</v>
+        <v>18.60320514163416</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>38.34679395543473</v>
+        <v>38.34679395543474</v>
       </c>
       <c r="L27" t="n">
         <v>118.5181001296708</v>
@@ -36689,7 +36689,7 @@
         <v>133.0312521404388</v>
       </c>
       <c r="P27" t="n">
-        <v>84.46981137181808</v>
+        <v>84.4698113718181</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36726,7 +36726,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>8.905310665923329</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -36744,13 +36744,13 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>47.66035286933441</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>93.24514294109206</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -36765,7 +36765,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>139.3263871203897</v>
+        <v>176.0058665262242</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>136.703131559407</v>
       </c>
       <c r="K29" t="n">
-        <v>206.7575583777001</v>
+        <v>206.7575583777</v>
       </c>
       <c r="L29" t="n">
         <v>260.677520706587</v>
@@ -36847,13 +36847,13 @@
         <v>248.0510481933624</v>
       </c>
       <c r="P29" t="n">
-        <v>198.3927781729123</v>
+        <v>198.3927781729122</v>
       </c>
       <c r="Q29" t="n">
-        <v>123.7730134865791</v>
+        <v>123.773013486579</v>
       </c>
       <c r="R29" t="n">
-        <v>18.60320514163418</v>
+        <v>18.60320514163416</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>38.34679395543473</v>
+        <v>38.34679395543474</v>
       </c>
       <c r="L30" t="n">
         <v>118.5181001296708</v>
@@ -36926,7 +36926,7 @@
         <v>133.0312521404388</v>
       </c>
       <c r="P30" t="n">
-        <v>84.46981137181808</v>
+        <v>84.4698113718181</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36963,19 +36963,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.02498965823421</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>68.30210027329031</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>74.55786830555436</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -36984,7 +36984,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>48.63178245603598</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -37005,13 +37005,13 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>155.0061516237521</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>77.56537843772979</v>
       </c>
       <c r="R31" t="n">
-        <v>10.0547893683669</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>137.5308414262712</v>
+        <v>117.4137166761563</v>
       </c>
       <c r="K32" t="n">
         <v>207.5852682445643</v>
@@ -37078,7 +37078,7 @@
         <v>295.9911463372767</v>
       </c>
       <c r="N32" t="n">
-        <v>289.7150315943923</v>
+        <v>290.4012413360091</v>
       </c>
       <c r="O32" t="n">
         <v>248.8787580602267</v>
@@ -37090,7 +37090,7 @@
         <v>124.6007233534433</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>19.43091500849842</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37203,16 +37203,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>47.85527941889288</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>69.12981014015452</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>75.38557817241858</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>94.07285280795628</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -37236,13 +37236,13 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>34.28925222079277</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>132.5870671443025</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37300,22 +37300,22 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>31.04939904079275</v>
+        <v>30.5016418554842</v>
       </c>
       <c r="J35" t="n">
-        <v>137.1286734118328</v>
+        <v>195.2775492916747</v>
       </c>
       <c r="K35" t="n">
-        <v>260.4608093700285</v>
+        <v>260.4608093700286</v>
       </c>
       <c r="L35" t="n">
         <v>47.19277018258605</v>
       </c>
       <c r="M35" t="n">
-        <v>260.4608093700285</v>
+        <v>260.4608093700286</v>
       </c>
       <c r="N35" t="n">
-        <v>260.4608093700285</v>
+        <v>76.08878094514388</v>
       </c>
       <c r="O35" t="n">
         <v>34.56629766936143</v>
@@ -37327,13 +37327,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>77.17762287390191</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>49.59328685644947</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37467,7 +37467,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>35.55650193384704</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -37491,7 +37491,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>35.55650193384693</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>31.04939904079275</v>
+        <v>31.04939904079269</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -37549,31 +37549,31 @@
         <v>47.19277018258605</v>
       </c>
       <c r="M38" t="n">
-        <v>260.4608093700285</v>
+        <v>207.8613860549192</v>
       </c>
       <c r="N38" t="n">
-        <v>169.1423781714132</v>
+        <v>260.4608093700286</v>
       </c>
       <c r="O38" t="n">
         <v>34.56629766936143</v>
       </c>
       <c r="P38" t="n">
-        <v>256.9671959051801</v>
+        <v>256.96719590518</v>
       </c>
       <c r="Q38" t="n">
-        <v>182.3474312188469</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>77.17762287390191</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>44.54217369782055</v>
       </c>
       <c r="T38" t="n">
-        <v>49.59328685644952</v>
+        <v>49.59328685644947</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>21.90862676361897</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>35.55650193384704</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -37740,7 +37740,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>35.55650193384693</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -37783,31 +37783,31 @@
         <v>234.2825770691751</v>
       </c>
       <c r="L41" t="n">
-        <v>47.19277018258605</v>
+        <v>288.2025393980621</v>
       </c>
       <c r="M41" t="n">
         <v>322.6884551618875</v>
       </c>
       <c r="N41" t="n">
-        <v>317.0985501606199</v>
+        <v>266.9911332521741</v>
       </c>
       <c r="O41" t="n">
         <v>34.56629766936143</v>
       </c>
       <c r="P41" t="n">
-        <v>39.60432012897625</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>151.2980321780541</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>46.1282238331092</v>
+        <v>46.12822383310923</v>
       </c>
       <c r="S41" t="n">
-        <v>13.49277465702784</v>
+        <v>13.49277465702787</v>
       </c>
       <c r="T41" t="n">
-        <v>18.54388781565676</v>
+        <v>18.54388781565679</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37923,10 +37923,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>25.21791528327969</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>72.30899428832355</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -37956,13 +37956,13 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>103.0986344208986</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>5.571724849295453</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -38014,37 +38014,37 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>164.228150250882</v>
       </c>
       <c r="K44" t="n">
-        <v>200.6503998530181</v>
+        <v>234.2825770691751</v>
       </c>
       <c r="L44" t="n">
-        <v>47.19277018258603</v>
+        <v>288.2025393980621</v>
       </c>
       <c r="M44" t="n">
         <v>322.6884551618875</v>
       </c>
       <c r="N44" t="n">
-        <v>317.0985501606199</v>
+        <v>266.9911332521743</v>
       </c>
       <c r="O44" t="n">
-        <v>275.5760668848374</v>
+        <v>34.56629766936142</v>
       </c>
       <c r="P44" t="n">
-        <v>225.9177968643873</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>46.1282238331092</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>13.49277465702784</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>18.54388781565676</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38148,7 +38148,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>63.39284855050792</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -38163,7 +38163,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>39.70578587039078</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -38178,7 +38178,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>103.0986344208987</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
